--- a/crudo/datos/Canastas.xlsx
+++ b/crudo/datos/Canastas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/garakaki_worldbank_org/Documents/Papers/ceped.data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{0A50B326-14BE-450E-AE08-452339C63C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB69302-70E0-43B0-AFF2-ABC905D30E6A}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{0A50B326-14BE-450E-AE08-452339C63C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8842B5B1-00E7-489B-9529-50E0854D20A5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7ECD5BB-8A8B-4ADB-99DB-B49CB1081E00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C7ECD5BB-8A8B-4ADB-99DB-B49CB1081E00}"/>
   </bookViews>
   <sheets>
     <sheet name="CBA - GBA" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,27 +277,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,22 +296,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,6 +309,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,16 +653,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7BB2D7-2A4F-4EFF-8E35-F270BFD02A6F}">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322:C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="24" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -690,41 +684,41 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>27273</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>29465</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="22">
         <v>130747.17971999345</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="21">
         <v>112123.29187946883</v>
       </c>
     </row>
@@ -732,10 +726,10 @@
       <c r="A12" s="3">
         <v>29830</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="22">
         <v>281695.62346487638</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="21">
         <v>241570.33963227781</v>
       </c>
     </row>
@@ -743,10 +737,10 @@
       <c r="A13" s="3">
         <v>30195</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="22">
         <v>845984.33109546441</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="21">
         <v>725480.64351378952</v>
       </c>
     </row>
@@ -754,10 +748,10 @@
       <c r="A14" s="3">
         <v>31291</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="19">
         <v>20.113000000000003</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="21">
         <v>17.248064351378957</v>
       </c>
     </row>
@@ -765,10 +759,10 @@
       <c r="A15" s="3">
         <v>31656</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="19">
         <v>35.496488155133861</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="21">
         <v>30.894779749744632</v>
       </c>
     </row>
@@ -776,10 +770,10 @@
       <c r="A16" s="3">
         <v>31868</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="19">
         <v>52.038252242777283</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="21">
         <v>45.685340909090911</v>
       </c>
     </row>
@@ -787,10 +781,10 @@
       <c r="A17" s="3">
         <v>32021</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="19">
         <v>85.621541419815344</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="21">
         <v>75.634329673135838</v>
       </c>
     </row>
@@ -798,10 +792,10 @@
       <c r="A18" s="4">
         <v>32234</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="19">
         <v>173.4</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="21">
         <v>154.50390704800816</v>
       </c>
     </row>
@@ -809,10 +803,10 @@
       <c r="A19" s="4">
         <v>32387</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="19">
         <v>427.58</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="21">
         <v>386.58456332992847</v>
       </c>
     </row>
@@ -820,10 +814,10 @@
       <c r="A20" s="4">
         <v>32599</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="19">
         <v>978.22</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="21">
         <v>910.41649642492325</v>
       </c>
     </row>
@@ -831,10 +825,10 @@
       <c r="A21" s="4">
         <v>32752</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="19">
         <v>15044.699999999999</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="21">
         <v>14693.09420326864</v>
       </c>
     </row>
@@ -842,10 +836,10 @@
       <c r="A22" s="4">
         <v>32964</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="19">
         <v>137130.01</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="21">
         <v>133716.27553626147</v>
       </c>
     </row>
@@ -853,10 +847,10 @@
       <c r="A23" s="4">
         <v>33117</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="19">
         <v>245772.87</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="21">
         <v>263913.46016343206</v>
       </c>
     </row>
@@ -864,10 +858,10 @@
       <c r="A24" s="4">
         <v>33329</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="19">
         <v>400185.98</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="21">
         <v>461784.65526046976</v>
       </c>
     </row>
@@ -875,10 +869,10 @@
       <c r="A25" s="4">
         <v>33482</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="19">
         <v>487425.48</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="21">
         <v>556980.15960163425</v>
       </c>
     </row>
@@ -886,10 +880,10 @@
       <c r="A26" s="4">
         <v>33695</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="19">
         <v>55.51</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="21">
         <v>63.486899514811029</v>
       </c>
     </row>
@@ -897,10 +891,10 @@
       <c r="A27" s="4">
         <v>33848</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="19">
         <v>57.94</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="21">
         <v>66.990880362614902</v>
       </c>
     </row>
@@ -908,10 +902,10 @@
       <c r="A28" s="4">
         <v>34060</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="19">
         <v>60.89</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="21">
         <v>70.083712206332976</v>
       </c>
     </row>
@@ -919,10 +913,10 @@
       <c r="A29" s="4">
         <v>34213</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="19">
         <v>62.44</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="21">
         <v>72.513254724208366</v>
       </c>
     </row>
@@ -930,10 +924,10 @@
       <c r="A30" s="4">
         <v>34425</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="19">
         <v>61.59</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="21">
         <v>71.075680669050044</v>
       </c>
     </row>
@@ -941,10 +935,10 @@
       <c r="A31" s="4">
         <v>34578</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="19">
         <v>62.82</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="21">
         <v>72.955259320735436</v>
       </c>
     </row>
@@ -952,10 +946,10 @@
       <c r="A32" s="4">
         <v>34790</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="19">
         <v>64.84</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="21">
         <v>73.952170326864135</v>
       </c>
     </row>
@@ -963,10 +957,10 @@
       <c r="A33" s="4">
         <v>34943</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="19">
         <v>66.12</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="21">
         <v>74.286780515832447</v>
       </c>
     </row>
@@ -974,10 +968,10 @@
       <c r="A34" s="4">
         <v>35156</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="19">
         <v>65.88</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="21">
         <v>73.329198033707854</v>
       </c>
     </row>
@@ -985,10 +979,10 @@
       <c r="A35" s="4">
         <v>35309</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="19">
         <v>67.38</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="21">
         <v>74.835402834525013</v>
       </c>
     </row>
@@ -996,10 +990,10 @@
       <c r="A36" s="4">
         <v>35521</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="19">
         <v>65.38</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="21">
         <v>72.641690245148098</v>
       </c>
     </row>
@@ -1007,10 +1001,10 @@
       <c r="A37" s="4">
         <v>35674</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="19">
         <v>67.36</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="21">
         <v>74.099034473952997</v>
       </c>
     </row>
@@ -1018,10 +1012,10 @@
       <c r="A38" s="4">
         <v>35886</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="19">
         <v>68.28</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="21">
         <v>74.320742849846766</v>
       </c>
     </row>
@@ -1029,10 +1023,10 @@
       <c r="A39" s="4">
         <v>36039</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="19">
         <v>69.78</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="21">
         <v>75.571629979570972</v>
       </c>
     </row>
@@ -1040,10 +1034,10 @@
       <c r="A40" s="4">
         <v>36251</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="19">
         <v>65.97</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="21">
         <v>72.834378830439221</v>
       </c>
     </row>
@@ -1051,10 +1045,10 @@
       <c r="A41" s="4">
         <v>36404</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="19">
         <v>64.569999999999993</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="21">
         <v>71.398781792645551</v>
       </c>
     </row>
@@ -1062,10 +1056,10 @@
       <c r="A42" s="4">
         <v>36617</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="19">
         <v>62.93</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="21">
         <v>70.191389044943804</v>
       </c>
     </row>
@@ -1073,10 +1067,10 @@
       <c r="A43" s="4">
         <v>36770</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="19">
         <v>62.44</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="21">
         <v>70.045795837589367</v>
       </c>
     </row>
@@ -1084,10 +1078,10 @@
       <c r="A44" s="4">
         <v>36800</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="19">
         <v>64.3</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="21">
         <v>70.607763023493334</v>
       </c>
     </row>
@@ -1095,10 +1089,10 @@
       <c r="A45" s="4">
         <v>36831</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="19">
         <v>63.47</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="21">
         <v>69.696922880490291</v>
       </c>
     </row>
@@ -1106,10 +1100,10 @@
       <c r="A46" s="4">
         <v>36861</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="19">
         <v>62.76</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="21">
         <v>69.012027579162407</v>
       </c>
     </row>
@@ -1117,10 +1111,10 @@
       <c r="A47" s="4">
         <v>36892</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="19">
         <v>62.73</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="21">
         <v>68.948480592441257</v>
       </c>
     </row>
@@ -1128,10 +1122,10 @@
       <c r="A48" s="4">
         <v>36923</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="19">
         <v>62.73</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="21">
         <v>68.913176710929505</v>
       </c>
     </row>
@@ -1139,10 +1133,10 @@
       <c r="A49" s="4">
         <v>36951</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="19">
         <v>62.92</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="21">
         <v>69.329762512768113</v>
       </c>
     </row>
@@ -1150,10 +1144,10 @@
       <c r="A50" s="4">
         <v>36982</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="19">
         <v>63.24</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="21">
         <v>69.760469867211427</v>
       </c>
     </row>
@@ -1161,10 +1155,10 @@
       <c r="A51" s="4">
         <v>37012</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="19">
         <v>62.74</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="21">
         <v>69.555707354443314</v>
       </c>
     </row>
@@ -1172,10 +1166,10 @@
       <c r="A52" s="4">
         <v>37043</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="19">
         <v>61.76</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="21">
         <v>68.715474974463717</v>
       </c>
     </row>
@@ -1183,10 +1177,10 @@
       <c r="A53" s="4">
         <v>37073</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="19">
         <v>61.59</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="21">
         <v>68.673110316649641</v>
       </c>
     </row>
@@ -1194,10 +1188,10 @@
       <c r="A54" s="4">
         <v>37104</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="19">
         <v>61.37</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="21">
         <v>68.454226251276808</v>
       </c>
     </row>
@@ -1205,10 +1199,10 @@
       <c r="A55" s="4">
         <v>37135</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B55" s="19">
         <v>61.02</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="21">
         <v>68.355375383043921</v>
       </c>
     </row>
@@ -1216,10 +1210,10 @@
       <c r="A56" s="4">
         <v>37165</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B56" s="19">
         <v>60.5</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="21">
         <v>67.621054647599593</v>
       </c>
     </row>
@@ -1227,10 +1221,10 @@
       <c r="A57" s="4">
         <v>37196</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="19">
         <v>60.75</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="21">
         <v>67.790513278855968</v>
       </c>
     </row>
@@ -1238,10 +1232,10 @@
       <c r="A58" s="4">
         <v>37226</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="19">
         <v>60.46</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="21">
         <v>67.557507660878443</v>
       </c>
     </row>
@@ -1249,10 +1243,10 @@
       <c r="A59" s="4">
         <v>37257</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="19">
         <v>62.41</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="21">
         <v>68.976723697650655</v>
       </c>
     </row>
@@ -1260,10 +1254,10 @@
       <c r="A60" s="4">
         <v>37288</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="19">
         <v>65.819999999999993</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="21">
         <v>71.730426455566899</v>
       </c>
     </row>
@@ -1271,10 +1265,10 @@
       <c r="A61" s="4">
         <v>37316</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="19">
         <v>69.83</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="21">
         <v>75.479698672114395</v>
       </c>
     </row>
@@ -1282,10 +1276,10 @@
       <c r="A62" s="4">
         <v>37347</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B62" s="19">
         <v>81.760000000000005</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="21">
         <v>85.456575587334015</v>
       </c>
     </row>
@@ -1293,10 +1287,10 @@
       <c r="A63" s="4">
         <v>37377</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="19">
         <v>86.2</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="21">
         <v>89.693041368743607</v>
       </c>
     </row>
@@ -1304,10 +1298,10 @@
       <c r="A64" s="4">
         <v>37408</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="19">
         <v>90.67</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="21">
         <v>93.957750255362598</v>
       </c>
     </row>
@@ -1315,10 +1309,10 @@
       <c r="A65" s="4">
         <v>37438</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="19">
         <v>94.93</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="21">
         <v>97.82705566905004</v>
       </c>
     </row>
@@ -1326,10 +1320,10 @@
       <c r="A66" s="4">
         <v>37469</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="19">
         <v>100.94</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="21">
         <v>102.38125638406535</v>
       </c>
     </row>
@@ -1337,10 +1331,10 @@
       <c r="A67" s="4">
         <v>37500</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="19">
         <v>104.87</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="21">
         <v>105.33266087844738</v>
       </c>
     </row>
@@ -1348,10 +1342,10 @@
       <c r="A68" s="4">
         <v>37530</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="19">
         <v>103.74</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="21">
         <v>105.00080439223696</v>
       </c>
     </row>
@@ -1359,10 +1353,10 @@
       <c r="A69" s="4">
         <v>37561</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B69" s="19">
         <v>105.08</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="21">
         <v>106.07404239019405</v>
       </c>
     </row>
@@ -1370,10 +1364,10 @@
       <c r="A70" s="4">
         <v>37591</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="19">
         <v>105.72</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="21">
         <v>106.70245148110317</v>
       </c>
     </row>
@@ -1381,10 +1375,10 @@
       <c r="A71" s="4">
         <v>37622</v>
       </c>
-      <c r="B71" s="28">
+      <c r="B71" s="19">
         <v>106.92</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="21">
         <v>108.35467313585291</v>
       </c>
     </row>
@@ -1392,10 +1386,10 @@
       <c r="A72" s="4">
         <v>37653</v>
       </c>
-      <c r="B72" s="28">
+      <c r="B72" s="19">
         <v>107.56</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="21">
         <v>109.65385597548519</v>
       </c>
     </row>
@@ -1403,10 +1397,10 @@
       <c r="A73" s="4">
         <v>37681</v>
       </c>
-      <c r="B73" s="28">
+      <c r="B73" s="19">
         <v>107.83</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="21">
         <v>110.96716036772213</v>
       </c>
     </row>
@@ -1414,10 +1408,10 @@
       <c r="A74" s="4">
         <v>37712</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B74" s="19">
         <v>106.55</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="21">
         <v>110.68472931562816</v>
       </c>
     </row>
@@ -1425,10 +1419,10 @@
       <c r="A75" s="4">
         <v>37742</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B75" s="19">
         <v>104.6</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="21">
         <v>109.6114913176711</v>
       </c>
     </row>
@@ -1436,10 +1430,10 @@
       <c r="A76" s="4">
         <v>37773</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B76" s="19">
         <v>103.13</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="21">
         <v>108.75713738508682</v>
       </c>
     </row>
@@ -1447,10 +1441,10 @@
       <c r="A77" s="4">
         <v>37803</v>
       </c>
-      <c r="B77" s="28">
+      <c r="B77" s="19">
         <v>102.31</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="21">
         <v>108.79244126659857</v>
       </c>
     </row>
@@ -1458,10 +1452,10 @@
       <c r="A78" s="4">
         <v>37834</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B78" s="19">
         <v>102.08</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="21">
         <v>109.32906026557711</v>
       </c>
     </row>
@@ -1469,10 +1463,10 @@
       <c r="A79" s="4">
         <v>37865</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="19">
         <v>101.99</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="21">
         <v>109.73152451481103</v>
       </c>
     </row>
@@ -1480,10 +1474,10 @@
       <c r="A80" s="4">
         <v>37895</v>
       </c>
-      <c r="B80" s="28">
+      <c r="B80" s="19">
         <v>104.12</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="21">
         <v>111.348442288049</v>
       </c>
     </row>
@@ -1491,10 +1485,10 @@
       <c r="A81" s="4">
         <v>37926</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B81" s="19">
         <v>105.24</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="21">
         <v>111.99097293156282</v>
       </c>
     </row>
@@ -1502,10 +1496,10 @@
       <c r="A82" s="4">
         <v>37956</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B82" s="19">
         <v>105.76</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="21">
         <v>111.68735955056179</v>
       </c>
     </row>
@@ -1513,10 +1507,10 @@
       <c r="A83" s="4">
         <v>37987</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="19">
         <v>105.81</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="21">
         <v>112.11100612870274</v>
       </c>
     </row>
@@ -1524,10 +1518,10 @@
       <c r="A84" s="4">
         <v>38018</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B84" s="19">
         <v>106.17</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="21">
         <v>112.50640960163432</v>
       </c>
     </row>
@@ -1535,10 +1529,10 @@
       <c r="A85" s="4">
         <v>38047</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B85" s="19">
         <v>106.02</v>
       </c>
-      <c r="C85" s="32">
+      <c r="C85" s="21">
         <v>112.94417773237996</v>
       </c>
     </row>
@@ -1546,10 +1540,10 @@
       <c r="A86" s="4">
         <v>38078</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B86" s="19">
         <v>106.52</v>
       </c>
-      <c r="C86" s="32">
+      <c r="C86" s="21">
         <v>113.99623340143</v>
       </c>
     </row>
@@ -1557,10 +1551,10 @@
       <c r="A87" s="4">
         <v>38108</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="19">
         <v>106.66</v>
       </c>
-      <c r="C87" s="32">
+      <c r="C87" s="21">
         <v>115.06241062308477</v>
       </c>
     </row>
@@ -1568,10 +1562,10 @@
       <c r="A88" s="4">
         <v>38139</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B88" s="19">
         <v>106.88</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="21">
         <v>115.85321756894788</v>
       </c>
     </row>
@@ -1579,10 +1573,10 @@
       <c r="A89" s="4">
         <v>38169</v>
       </c>
-      <c r="B89" s="28">
+      <c r="B89" s="19">
         <v>106.14</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C89" s="21">
         <v>115.50017875383043</v>
       </c>
     </row>
@@ -1590,10 +1584,10 @@
       <c r="A90" s="4">
         <v>38200</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="19">
         <v>107.9</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="21">
         <v>116.93351634320734</v>
       </c>
     </row>
@@ -1601,10 +1595,10 @@
       <c r="A91" s="4">
         <v>38231</v>
       </c>
-      <c r="B91" s="28">
+      <c r="B91" s="19">
         <v>108.54</v>
       </c>
-      <c r="C91" s="32">
+      <c r="C91" s="21">
         <v>117.71726251276812</v>
       </c>
     </row>
@@ -1612,10 +1606,10 @@
       <c r="A92" s="4">
         <v>38261</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B92" s="19">
         <v>108.1</v>
       </c>
-      <c r="C92" s="32">
+      <c r="C92" s="21">
         <v>117.94320735444329</v>
       </c>
     </row>
@@ -1623,10 +1617,10 @@
       <c r="A93" s="4">
         <v>38292</v>
       </c>
-      <c r="B93" s="28">
+      <c r="B93" s="19">
         <v>108.25</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C93" s="21">
         <v>117.68195863125636</v>
       </c>
     </row>
@@ -1634,10 +1628,10 @@
       <c r="A94" s="4">
         <v>38322</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B94" s="19">
         <v>108.36</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="21">
         <v>118.45158324821246</v>
       </c>
     </row>
@@ -1645,10 +1639,10 @@
       <c r="A95" s="4">
         <v>38353</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="19">
         <v>108.66</v>
       </c>
-      <c r="C95" s="32">
+      <c r="C95" s="21">
         <v>119.291815628192</v>
       </c>
     </row>
@@ -1656,10 +1650,10 @@
       <c r="A96" s="4">
         <v>38384</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="19">
         <v>111.37</v>
       </c>
-      <c r="C96" s="32">
+      <c r="C96" s="21">
         <v>121.43123084780385</v>
       </c>
     </row>
@@ -1667,10 +1661,10 @@
       <c r="A97" s="4">
         <v>38412</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="19">
         <v>114.71</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="21">
         <v>124.65800561797752</v>
       </c>
     </row>
@@ -1678,10 +1672,10 @@
       <c r="A98" s="4">
         <v>38443</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="19">
         <v>114.18</v>
       </c>
-      <c r="C98" s="32">
+      <c r="C98" s="21">
         <v>125.11695607763021</v>
       </c>
     </row>
@@ -1689,10 +1683,10 @@
       <c r="A99" s="4">
         <v>38473</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="19">
         <v>114.04</v>
       </c>
-      <c r="C99" s="32">
+      <c r="C99" s="21">
         <v>125.37114402451479</v>
       </c>
     </row>
@@ -1700,10 +1694,10 @@
       <c r="A100" s="4">
         <v>38504</v>
       </c>
-      <c r="B100" s="28">
+      <c r="B100" s="19">
         <v>114.49</v>
       </c>
-      <c r="C100" s="32">
+      <c r="C100" s="21">
         <v>126.345531154239</v>
       </c>
     </row>
@@ -1711,10 +1705,10 @@
       <c r="A101" s="4">
         <v>38534</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B101" s="19">
         <v>115.78</v>
       </c>
-      <c r="C101" s="32">
+      <c r="C101" s="21">
         <v>127.81417262512767</v>
       </c>
     </row>
@@ -1722,10 +1716,10 @@
       <c r="A102" s="4">
         <v>38565</v>
       </c>
-      <c r="B102" s="28">
+      <c r="B102" s="19">
         <v>117.5</v>
       </c>
-      <c r="C102" s="32">
+      <c r="C102" s="21">
         <v>129.62879213483146</v>
       </c>
     </row>
@@ -1733,10 +1727,10 @@
       <c r="A103" s="4">
         <v>38596</v>
       </c>
-      <c r="B103" s="28">
+      <c r="B103" s="19">
         <v>120.14</v>
       </c>
-      <c r="C103" s="32">
+      <c r="C103" s="21">
         <v>132.8979315628192</v>
       </c>
     </row>
@@ -1744,10 +1738,10 @@
       <c r="A104" s="4">
         <v>38626</v>
       </c>
-      <c r="B104" s="28">
+      <c r="B104" s="19">
         <v>120.7</v>
       </c>
-      <c r="C104" s="32">
+      <c r="C104" s="21">
         <v>133.15918028600609</v>
       </c>
     </row>
@@ -1755,10 +1749,10 @@
       <c r="A105" s="4">
         <v>38657</v>
       </c>
-      <c r="B105" s="28">
+      <c r="B105" s="19">
         <v>124.73</v>
       </c>
-      <c r="C105" s="32">
+      <c r="C105" s="21">
         <v>136.0187946884576</v>
       </c>
     </row>
@@ -1766,10 +1760,10 @@
       <c r="A106" s="4">
         <v>38687</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B106" s="19">
         <v>124.59</v>
       </c>
-      <c r="C106" s="32">
+      <c r="C106" s="21">
         <v>137.04966802860059</v>
       </c>
     </row>
@@ -1777,10 +1771,10 @@
       <c r="A107" s="4">
         <v>38718</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B107" s="19">
         <v>125.81</v>
       </c>
-      <c r="C107" s="32">
+      <c r="C107" s="21">
         <v>138.25</v>
       </c>
     </row>
@@ -1788,10 +1782,10 @@
       <c r="A108" s="4">
         <v>38749</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="19">
         <v>127.19</v>
       </c>
-      <c r="C108" s="32">
+      <c r="C108" s="21">
         <v>139.61000000000001</v>
       </c>
     </row>
@@ -1799,10 +1793,10 @@
       <c r="A109" s="4">
         <v>38777</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B109" s="19">
         <v>129.44</v>
       </c>
-      <c r="C109" s="32">
+      <c r="C109" s="21">
         <v>141.06</v>
       </c>
     </row>
@@ -1810,10 +1804,10 @@
       <c r="A110" s="4">
         <v>38808</v>
       </c>
-      <c r="B110" s="28">
+      <c r="B110" s="19">
         <v>128.49</v>
       </c>
-      <c r="C110" s="32">
+      <c r="C110" s="21">
         <v>140.38999999999999</v>
       </c>
     </row>
@@ -1821,10 +1815,10 @@
       <c r="A111" s="4">
         <v>38838</v>
       </c>
-      <c r="B111" s="28">
+      <c r="B111" s="19">
         <v>126.57</v>
       </c>
-      <c r="C111" s="32">
+      <c r="C111" s="21">
         <v>138.71</v>
       </c>
     </row>
@@ -1832,10 +1826,10 @@
       <c r="A112" s="4">
         <v>38869</v>
       </c>
-      <c r="B112" s="28">
+      <c r="B112" s="19">
         <v>126.62</v>
       </c>
-      <c r="C112" s="32">
+      <c r="C112" s="21">
         <v>138.96</v>
       </c>
     </row>
@@ -1843,10 +1837,10 @@
       <c r="A113" s="4">
         <v>38899</v>
       </c>
-      <c r="B113" s="28">
+      <c r="B113" s="19">
         <v>126.36</v>
       </c>
-      <c r="C113" s="32">
+      <c r="C113" s="21">
         <v>138.37</v>
       </c>
     </row>
@@ -1854,10 +1848,10 @@
       <c r="A114" s="4">
         <v>38930</v>
       </c>
-      <c r="B114" s="28">
+      <c r="B114" s="19">
         <v>126.68</v>
       </c>
-      <c r="C114" s="32">
+      <c r="C114" s="21">
         <v>138.97999999999999</v>
       </c>
     </row>
@@ -1865,10 +1859,10 @@
       <c r="A115" s="4">
         <v>38961</v>
       </c>
-      <c r="B115" s="28">
+      <c r="B115" s="19">
         <v>126.78</v>
       </c>
-      <c r="C115" s="32">
+      <c r="C115" s="21">
         <v>139.31</v>
       </c>
     </row>
@@ -1876,10 +1870,10 @@
       <c r="A116" s="4">
         <v>38991</v>
       </c>
-      <c r="B116" s="28">
+      <c r="B116" s="19">
         <v>127.88</v>
       </c>
-      <c r="C116" s="32">
+      <c r="C116" s="21">
         <v>141.71</v>
       </c>
     </row>
@@ -1887,10 +1881,10 @@
       <c r="A117" s="4">
         <v>39022</v>
       </c>
-      <c r="B117" s="28">
+      <c r="B117" s="19">
         <v>130.5</v>
       </c>
-      <c r="C117" s="32">
+      <c r="C117" s="21">
         <v>145.02000000000001</v>
       </c>
     </row>
@@ -1898,10 +1892,10 @@
       <c r="A118" s="4">
         <v>39052</v>
       </c>
-      <c r="B118" s="28">
+      <c r="B118" s="19">
         <v>134.13999999999999</v>
       </c>
-      <c r="C118" s="32">
+      <c r="C118" s="21">
         <v>149.13</v>
       </c>
     </row>
@@ -1909,10 +1903,10 @@
       <c r="A119" s="4">
         <v>39083</v>
       </c>
-      <c r="B119" s="28">
+      <c r="B119" s="19">
         <v>136.23252846369954</v>
       </c>
-      <c r="C119" s="32">
+      <c r="C119" s="21">
         <v>151.41784265892719</v>
       </c>
     </row>
@@ -1920,10 +1914,10 @@
       <c r="A120" s="4">
         <v>39114</v>
       </c>
-      <c r="B120" s="28">
+      <c r="B120" s="19">
         <v>138.30522253437826</v>
       </c>
-      <c r="C120" s="32">
+      <c r="C120" s="21">
         <v>153.68247217489721</v>
       </c>
     </row>
@@ -1931,10 +1925,10 @@
       <c r="A121" s="4">
         <v>39142</v>
       </c>
-      <c r="B121" s="28">
+      <c r="B121" s="19">
         <v>139.75313322490015</v>
       </c>
-      <c r="C121" s="32">
+      <c r="C121" s="21">
         <v>155.25186750074667</v>
       </c>
     </row>
@@ -1942,10 +1936,10 @@
       <c r="A122" s="4">
         <v>39173</v>
       </c>
-      <c r="B122" s="28">
+      <c r="B122" s="19">
         <v>146.25881413573859</v>
       </c>
-      <c r="C122" s="32">
+      <c r="C122" s="21">
         <v>162.43770636608554</v>
       </c>
     </row>
@@ -1953,10 +1947,10 @@
       <c r="A123" s="4">
         <v>39203</v>
       </c>
-      <c r="B123" s="28">
+      <c r="B123" s="19">
         <v>150.21577554339788</v>
       </c>
-      <c r="C123" s="32">
+      <c r="C123" s="21">
         <v>166.78994531436956</v>
       </c>
     </row>
@@ -1964,10 +1958,10 @@
       <c r="A124" s="4">
         <v>39234</v>
       </c>
-      <c r="B124" s="28">
+      <c r="B124" s="19">
         <v>158.13961555522698</v>
       </c>
-      <c r="C124" s="32">
+      <c r="C124" s="21">
         <v>175.54340652710118</v>
       </c>
     </row>
@@ -1975,10 +1969,10 @@
       <c r="A125" s="4">
         <v>39264</v>
       </c>
-      <c r="B125" s="28">
+      <c r="B125" s="19">
         <v>165.00231554044058</v>
       </c>
-      <c r="C125" s="32">
+      <c r="C125" s="21">
         <v>183.11478157750724</v>
       </c>
     </row>
@@ -1986,10 +1980,10 @@
       <c r="A126" s="4">
         <v>39295</v>
       </c>
-      <c r="B126" s="28">
+      <c r="B126" s="19">
         <v>172.57905367440483</v>
       </c>
-      <c r="C126" s="32">
+      <c r="C126" s="21">
         <v>191.47451090679937</v>
       </c>
     </row>
@@ -1997,10 +1991,10 @@
       <c r="A127" s="4">
         <v>39326</v>
       </c>
-      <c r="B127" s="28">
+      <c r="B127" s="19">
         <v>177.67649268076295</v>
       </c>
-      <c r="C127" s="32">
+      <c r="C127" s="21">
         <v>197.07992100702205</v>
       </c>
     </row>
@@ -2008,10 +2002,10 @@
       <c r="A128" s="4">
         <v>39356</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B128" s="19">
         <v>181.23676622800528</v>
       </c>
-      <c r="C128" s="32">
+      <c r="C128" s="21">
         <v>200.9778669581336</v>
       </c>
     </row>
@@ -2019,10 +2013,10 @@
       <c r="A129" s="4">
         <v>39387</v>
       </c>
-      <c r="B129" s="28">
+      <c r="B129" s="19">
         <v>175.32611710779241</v>
       </c>
-      <c r="C129" s="32">
+      <c r="C129" s="21">
         <v>194.37395164604942</v>
       </c>
     </row>
@@ -2030,10 +2024,10 @@
       <c r="A130" s="4">
         <v>39417</v>
       </c>
-      <c r="B130" s="28">
+      <c r="B130" s="19">
         <v>175.95090048794907</v>
       </c>
-      <c r="C130" s="32">
+      <c r="C130" s="21">
         <v>195.01699687813198</v>
       </c>
     </row>
@@ -2041,10 +2035,10 @@
       <c r="A131" s="4">
         <v>39448</v>
       </c>
-      <c r="B131" s="28">
+      <c r="B131" s="19">
         <v>181.40535856868249</v>
       </c>
-      <c r="C131" s="32">
+      <c r="C131" s="21">
         <v>201.01136065841084</v>
       </c>
     </row>
@@ -2052,10 +2046,10 @@
       <c r="A132" s="4">
         <v>39479</v>
       </c>
-      <c r="B132" s="28">
+      <c r="B132" s="19">
         <v>190.35066982108529</v>
       </c>
-      <c r="C132" s="32">
+      <c r="C132" s="21">
         <v>210.8698175773622</v>
       </c>
     </row>
@@ -2063,10 +2057,10 @@
       <c r="A133" s="4">
         <v>39508</v>
       </c>
-      <c r="B133" s="28">
+      <c r="B133" s="19">
         <v>204.63143279609642</v>
       </c>
-      <c r="C133" s="32">
+      <c r="C133" s="21">
         <v>226.63233809539199</v>
       </c>
     </row>
@@ -2074,10 +2068,10 @@
       <c r="A134" s="4">
         <v>39539</v>
       </c>
-      <c r="B134" s="28">
+      <c r="B134" s="19">
         <v>212.4461836463108</v>
       </c>
-      <c r="C134" s="32">
+      <c r="C134" s="21">
         <v>235.22744386751398</v>
       </c>
     </row>
@@ -2085,10 +2079,10 @@
       <c r="A135" s="4">
         <v>39569</v>
       </c>
-      <c r="B135" s="28">
+      <c r="B135" s="19">
         <v>208.21154073635958</v>
       </c>
-      <c r="C135" s="32">
+      <c r="C135" s="21">
         <v>230.48006858056937</v>
       </c>
     </row>
@@ -2096,10 +2090,10 @@
       <c r="A136" s="4">
         <v>39600</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B136" s="19">
         <v>212.0693301789147</v>
       </c>
-      <c r="C136" s="32">
+      <c r="C136" s="21">
         <v>234.69074440904123</v>
       </c>
     </row>
@@ -2107,10 +2101,10 @@
       <c r="A137" s="4">
         <v>39630</v>
       </c>
-      <c r="B137" s="28">
+      <c r="B137" s="19">
         <v>214.35028537631226</v>
       </c>
-      <c r="C137" s="32">
+      <c r="C137" s="21">
         <v>237.15467217926556</v>
       </c>
     </row>
@@ -2118,10 +2112,10 @@
       <c r="A138" s="4">
         <v>39661</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B138" s="19">
         <v>214.57838089605201</v>
       </c>
-      <c r="C138" s="32">
+      <c r="C138" s="21">
         <v>237.34664888709239</v>
       </c>
     </row>
@@ -2129,10 +2123,10 @@
       <c r="A139" s="4">
         <v>39692</v>
       </c>
-      <c r="B139" s="28">
+      <c r="B139" s="19">
         <v>214.43954014490609</v>
       </c>
-      <c r="C139" s="32">
+      <c r="C139" s="21">
         <v>237.13274504937854</v>
       </c>
     </row>
@@ -2140,10 +2134,10 @@
       <c r="A140" s="4">
         <v>39722</v>
       </c>
-      <c r="B140" s="28">
+      <c r="B140" s="19">
         <v>215.58993494011531</v>
       </c>
-      <c r="C140" s="32">
+      <c r="C140" s="21">
         <v>238.34424178876299</v>
       </c>
     </row>
@@ -2151,10 +2145,10 @@
       <c r="A141" s="4">
         <v>39753</v>
       </c>
-      <c r="B141" s="28">
+      <c r="B141" s="19">
         <v>216.37339346443886</v>
       </c>
-      <c r="C141" s="32">
+      <c r="C141" s="21">
         <v>239.14954573643695</v>
       </c>
     </row>
@@ -2162,10 +2156,10 @@
       <c r="A142" s="4">
         <v>39783</v>
       </c>
-      <c r="B142" s="28">
+      <c r="B142" s="19">
         <v>215.93703681798019</v>
       </c>
-      <c r="C142" s="32">
+      <c r="C142" s="21">
         <v>238.60655072458067</v>
       </c>
     </row>
@@ -2173,10 +2167,10 @@
       <c r="A143" s="4">
         <v>39814</v>
       </c>
-      <c r="B143" s="28">
+      <c r="B143" s="19">
         <v>218.18824042584652</v>
       </c>
-      <c r="C143" s="32">
+      <c r="C143" s="21">
         <v>241.03276696232885</v>
       </c>
     </row>
@@ -2184,10 +2178,10 @@
       <c r="A144" s="4">
         <v>39845</v>
       </c>
-      <c r="B144" s="28">
+      <c r="B144" s="19">
         <v>217.44445068756468</v>
       </c>
-      <c r="C144" s="32">
+      <c r="C144" s="21">
         <v>240.15000293676096</v>
       </c>
     </row>
@@ -2195,10 +2189,10 @@
       <c r="A145" s="4">
         <v>39873</v>
       </c>
-      <c r="B145" s="28">
+      <c r="B145" s="19">
         <v>221.78818275913056</v>
       </c>
-      <c r="C145" s="32">
+      <c r="C145" s="21">
         <v>244.88500413102506</v>
       </c>
     </row>
@@ -2206,10 +2200,10 @@
       <c r="A146" s="4">
         <v>39904</v>
       </c>
-      <c r="B146" s="28">
+      <c r="B146" s="19">
         <v>226.58810587017592</v>
       </c>
-      <c r="C146" s="32">
+      <c r="C146" s="21">
         <v>250.12115129646514</v>
       </c>
     </row>
@@ -2217,10 +2211,10 @@
       <c r="A147" s="4">
         <v>39934</v>
       </c>
-      <c r="B147" s="28">
+      <c r="B147" s="19">
         <v>227.1137172852284</v>
       </c>
-      <c r="C147" s="32">
+      <c r="C147" s="21">
         <v>250.63758479523892</v>
       </c>
     </row>
@@ -2228,10 +2222,10 @@
       <c r="A148" s="4">
         <v>39965</v>
       </c>
-      <c r="B148" s="28">
+      <c r="B148" s="19">
         <v>226.76661540736359</v>
       </c>
-      <c r="C148" s="32">
+      <c r="C148" s="21">
         <v>250.19087762789553</v>
       </c>
     </row>
@@ -2239,10 +2233,10 @@
       <c r="A149" s="4">
         <v>39995</v>
       </c>
-      <c r="B149" s="28">
+      <c r="B149" s="19">
         <v>228.82939228153191</v>
       </c>
-      <c r="C149" s="32">
+      <c r="C149" s="21">
         <v>252.40251668699656</v>
       </c>
     </row>
@@ -2250,10 +2244,10 @@
       <c r="A150" s="4">
         <v>40026</v>
       </c>
-      <c r="B150" s="28">
+      <c r="B150" s="19">
         <v>234.04583764601509</v>
       </c>
-      <c r="C150" s="32">
+      <c r="C150" s="21">
         <v>258.09067699129304</v>
       </c>
     </row>
@@ -2261,10 +2255,10 @@
       <c r="A151" s="4">
         <v>40057</v>
       </c>
-      <c r="B151" s="28">
+      <c r="B151" s="19">
         <v>236.67389472127755</v>
       </c>
-      <c r="C151" s="32">
+      <c r="C151" s="21">
         <v>260.92234544358234</v>
       </c>
     </row>
@@ -2272,10 +2266,10 @@
       <c r="A152" s="4">
         <v>40087</v>
       </c>
-      <c r="B152" s="28">
+      <c r="B152" s="19">
         <v>241.8506712997191</v>
       </c>
-      <c r="C152" s="32">
+      <c r="C152" s="21">
         <v>266.56169085490581</v>
       </c>
     </row>
@@ -2283,10 +2277,10 @@
       <c r="A153" s="4">
         <v>40118</v>
       </c>
-      <c r="B153" s="28">
+      <c r="B153" s="19">
         <v>242.56470944846964</v>
       </c>
-      <c r="C153" s="32">
+      <c r="C153" s="21">
         <v>267.28068431240717</v>
       </c>
     </row>
@@ -2294,10 +2288,10 @@
       <c r="A154" s="4">
         <v>40148</v>
       </c>
-      <c r="B154" s="28">
+      <c r="B154" s="19">
         <v>257.60909655478332</v>
       </c>
-      <c r="C154" s="32">
+      <c r="C154" s="21">
         <v>283.78580901074201</v>
       </c>
     </row>
@@ -2305,10 +2299,10 @@
       <c r="A155" s="4">
         <v>40179</v>
       </c>
-      <c r="B155" s="28">
+      <c r="B155" s="19">
         <v>268.3593375720834</v>
       </c>
-      <c r="C155" s="32">
+      <c r="C155" s="21">
         <v>295.55323152350519</v>
       </c>
     </row>
@@ -2316,10 +2310,10 @@
       <c r="A156" s="4">
         <v>40210</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B156" s="19">
         <v>296.44483808960518</v>
       </c>
-      <c r="C156" s="32">
+      <c r="C156" s="21">
         <v>326.40170204593852</v>
       </c>
     </row>
@@ -2327,10 +2321,10 @@
       <c r="A157" s="4">
         <v>40238</v>
       </c>
-      <c r="B157" s="28">
+      <c r="B157" s="19">
         <v>305.24139139435164</v>
       </c>
-      <c r="C157" s="32">
+      <c r="C157" s="21">
         <v>336.00169482551331</v>
       </c>
     </row>
@@ -2338,10 +2332,10 @@
       <c r="A158" s="4">
         <v>40269</v>
       </c>
-      <c r="B158" s="28">
+      <c r="B158" s="19">
         <v>308.02812361378091</v>
       </c>
-      <c r="C158" s="32">
+      <c r="C158" s="21">
         <v>338.98301258318452</v>
       </c>
     </row>
@@ -2349,10 +2343,10 @@
       <c r="A159" s="4">
         <v>40299</v>
       </c>
-      <c r="B159" s="28">
+      <c r="B159" s="19">
         <v>313.64125683868099</v>
       </c>
-      <c r="C159" s="32">
+      <c r="C159" s="21">
         <v>345.07243735555926</v>
       </c>
     </row>
@@ -2360,10 +2354,10 @@
       <c r="A160" s="4">
         <v>40330</v>
       </c>
-      <c r="B160" s="28">
+      <c r="B160" s="19">
         <v>316.74533934644387</v>
       </c>
-      <c r="C160" s="32">
+      <c r="C160" s="21">
         <v>348.39895238550548</v>
       </c>
     </row>
@@ -2371,10 +2365,10 @@
       <c r="A161" s="4">
         <v>40360</v>
       </c>
-      <c r="B161" s="28">
+      <c r="B161" s="19">
         <v>318.68910986248704</v>
       </c>
-      <c r="C161" s="32">
+      <c r="C161" s="21">
         <v>350.44781093415708</v>
       </c>
     </row>
@@ -2382,10 +2376,10 @@
       <c r="A162" s="4">
         <v>40391</v>
       </c>
-      <c r="B162" s="28">
+      <c r="B162" s="19">
         <v>321.95186751441668</v>
       </c>
-      <c r="C162" s="32">
+      <c r="C162" s="21">
         <v>353.94566546081319</v>
       </c>
     </row>
@@ -2393,10 +2387,10 @@
       <c r="A163" s="4">
         <v>40422</v>
       </c>
-      <c r="B163" s="28">
+      <c r="B163" s="19">
         <v>327.06914091379565</v>
       </c>
-      <c r="C163" s="32">
+      <c r="C163" s="21">
         <v>359.48000662254725</v>
       </c>
     </row>
@@ -2404,10 +2398,10 @@
       <c r="A164" s="4">
         <v>40452</v>
       </c>
-      <c r="B164" s="28">
+      <c r="B164" s="19">
         <v>345.62421558479963</v>
       </c>
-      <c r="C164" s="32">
+      <c r="C164" s="21">
         <v>379.77717095096051</v>
       </c>
     </row>
@@ -2415,10 +2409,10 @@
       <c r="A165" s="4">
         <v>40483</v>
       </c>
-      <c r="B165" s="28">
+      <c r="B165" s="19">
         <v>355.58108088126568</v>
       </c>
-      <c r="C165" s="32">
+      <c r="C165" s="21">
         <v>390.61854589143775</v>
       </c>
     </row>
@@ -2426,10 +2420,10 @@
       <c r="A166" s="4">
         <v>40513</v>
       </c>
-      <c r="B166" s="28">
+      <c r="B166" s="19">
         <v>362.36444329439587</v>
       </c>
-      <c r="C166" s="32">
+      <c r="C166" s="21">
         <v>397.96906137274635</v>
       </c>
     </row>
@@ -2437,10 +2431,10 @@
       <c r="A167" s="4">
         <v>40544</v>
       </c>
-      <c r="B167" s="28">
+      <c r="B167" s="19">
         <v>363.96111193257428</v>
       </c>
-      <c r="C167" s="32">
+      <c r="C167" s="21">
         <v>399.62094166993887</v>
       </c>
     </row>
@@ -2448,10 +2442,10 @@
       <c r="A168" s="4">
         <v>40575</v>
       </c>
-      <c r="B168" s="28">
+      <c r="B168" s="19">
         <v>368.26517521809842</v>
       </c>
-      <c r="C168" s="32">
+      <c r="C168" s="21">
         <v>404.24385692639157</v>
       </c>
     </row>
@@ -2459,10 +2453,10 @@
       <c r="A169" s="4">
         <v>40603</v>
       </c>
-      <c r="B169" s="28">
+      <c r="B169" s="19">
         <v>380.05672186899307</v>
       </c>
-      <c r="C169" s="32">
+      <c r="C169" s="21">
         <v>417.0812977713237</v>
       </c>
     </row>
@@ -2470,10 +2464,10 @@
       <c r="A170" s="4">
         <v>40634</v>
       </c>
-      <c r="B170" s="28">
+      <c r="B170" s="19">
         <v>390.47969540144902</v>
       </c>
-      <c r="C170" s="32">
+      <c r="C170" s="21">
         <v>428.41066642615425</v>
       </c>
     </row>
@@ -2481,10 +2475,10 @@
       <c r="A171" s="4">
         <v>40664</v>
       </c>
-      <c r="B171" s="28">
+      <c r="B171" s="19">
         <v>396.29117255655774</v>
       </c>
-      <c r="C171" s="32">
+      <c r="C171" s="21">
         <v>434.67607718225611</v>
       </c>
     </row>
@@ -2492,10 +2486,10 @@
       <c r="A172" s="4">
         <v>40695</v>
       </c>
-      <c r="B172" s="28">
+      <c r="B172" s="19">
         <v>401.96380896052045</v>
       </c>
-      <c r="C172" s="32">
+      <c r="C172" s="21">
         <v>440.78602277121524</v>
       </c>
     </row>
@@ -2503,10 +2497,10 @@
       <c r="A173" s="4">
         <v>40725</v>
       </c>
-      <c r="B173" s="28">
+      <c r="B173" s="19">
         <v>409.94715215141207</v>
       </c>
-      <c r="C173" s="32">
+      <c r="C173" s="21">
         <v>449.42606555682386</v>
       </c>
     </row>
@@ -2514,10 +2508,10 @@
       <c r="A174" s="4">
         <v>40756</v>
       </c>
-      <c r="B174" s="28">
+      <c r="B174" s="19">
         <v>418.55527872246051</v>
       </c>
-      <c r="C174" s="32">
+      <c r="C174" s="21">
         <v>458.74646188614088</v>
       </c>
     </row>
@@ -2525,10 +2519,10 @@
       <c r="A175" s="4">
         <v>40787</v>
       </c>
-      <c r="B175" s="28">
+      <c r="B175" s="19">
         <v>426.82622061215432</v>
       </c>
-      <c r="C175" s="32">
+      <c r="C175" s="21">
         <v>467.69261940371274</v>
       </c>
     </row>
@@ -2536,10 +2530,10 @@
       <c r="A176" s="4">
         <v>40817</v>
       </c>
-      <c r="B176" s="28">
+      <c r="B176" s="19">
         <v>427.95678101434271</v>
       </c>
-      <c r="C176" s="32">
+      <c r="C176" s="21">
         <v>468.81215031754056</v>
       </c>
     </row>
@@ -2547,10 +2541,10 @@
       <c r="A177" s="4">
         <v>40848</v>
       </c>
-      <c r="B177" s="28">
+      <c r="B177" s="19">
         <v>430.96169155700136</v>
       </c>
-      <c r="C177" s="32">
+      <c r="C177" s="21">
         <v>471.98384625337269</v>
       </c>
     </row>
@@ -2558,10 +2552,10 @@
       <c r="A178" s="4">
         <v>40878</v>
       </c>
-      <c r="B178" s="28">
+      <c r="B178" s="19">
         <v>441.93011089753071</v>
       </c>
-      <c r="C178" s="32">
+      <c r="C178" s="21">
         <v>483.87321511026352</v>
       </c>
     </row>
@@ -2569,10 +2563,10 @@
       <c r="A179" s="4">
         <v>40909</v>
       </c>
-      <c r="B179" s="28">
+      <c r="B179" s="19">
         <v>443.73504066242793</v>
       </c>
-      <c r="C179" s="32">
+      <c r="C179" s="21">
         <v>485.72587082542975</v>
       </c>
     </row>
@@ -2580,10 +2574,10 @@
       <c r="A180" s="4">
         <v>40940</v>
       </c>
-      <c r="B180" s="28">
+      <c r="B180" s="19">
         <v>451.8770589974863</v>
       </c>
-      <c r="C180" s="32">
+      <c r="C180" s="21">
         <v>494.5125582540656</v>
       </c>
     </row>
@@ -2591,10 +2585,10 @@
       <c r="A181" s="4">
         <v>40969</v>
       </c>
-      <c r="B181" s="28">
+      <c r="B181" s="19">
         <v>472.32631820198134</v>
       </c>
-      <c r="C181" s="32">
+      <c r="C181" s="21">
         <v>516.75977215472733</v>
       </c>
     </row>
@@ -2602,10 +2596,10 @@
       <c r="A182" s="4">
         <v>41000</v>
       </c>
-      <c r="B182" s="28">
+      <c r="B182" s="19">
         <v>483.59225343782344</v>
       </c>
-      <c r="C182" s="32">
+      <c r="C182" s="21">
         <v>528.95095962394225</v>
       </c>
     </row>
@@ -2613,10 +2607,10 @@
       <c r="A183" s="4">
         <v>41030</v>
       </c>
-      <c r="B183" s="28">
+      <c r="B183" s="19">
         <v>492.09129084725708</v>
       </c>
-      <c r="C183" s="32">
+      <c r="C183" s="21">
         <v>538.11026169375816</v>
       </c>
     </row>
@@ -2624,10 +2618,10 @@
       <c r="A184" s="4">
         <v>41061</v>
       </c>
-      <c r="B184" s="28">
+      <c r="B184" s="19">
         <v>500.13413721721128</v>
       </c>
-      <c r="C184" s="32">
+      <c r="C184" s="21">
         <v>546.76614428820164</v>
       </c>
     </row>
@@ -2635,10 +2629,10 @@
       <c r="A185" s="4">
         <v>41091</v>
       </c>
-      <c r="B185" s="28">
+      <c r="B185" s="19">
         <v>509.28770959633289</v>
       </c>
-      <c r="C185" s="32">
+      <c r="C185" s="21">
         <v>556.63156887699427</v>
       </c>
     </row>
@@ -2646,10 +2640,10 @@
       <c r="A186" s="4">
         <v>41122</v>
       </c>
-      <c r="B186" s="28">
+      <c r="B186" s="19">
         <v>520.74207156587306</v>
       </c>
-      <c r="C186" s="32">
+      <c r="C186" s="21">
         <v>569.00597297601769</v>
       </c>
     </row>
@@ -2657,10 +2651,10 @@
       <c r="A187" s="4">
         <v>41153</v>
       </c>
-      <c r="B187" s="28">
+      <c r="B187" s="19">
         <v>526.6130519000443</v>
       </c>
-      <c r="C187" s="32">
+      <c r="C187" s="21">
         <v>575.27473206683794</v>
       </c>
     </row>
@@ -2668,10 +2662,10 @@
       <c r="A188" s="4">
         <v>41183</v>
       </c>
-      <c r="B188" s="28">
+      <c r="B188" s="19">
         <v>531.70057370989207</v>
       </c>
-      <c r="C188" s="32">
+      <c r="C188" s="21">
         <v>580.68462905113267</v>
       </c>
     </row>
@@ -2679,10 +2673,10 @@
       <c r="A189" s="4">
         <v>41214</v>
       </c>
-      <c r="B189" s="28">
+      <c r="B189" s="19">
         <v>545.22762975011085</v>
       </c>
-      <c r="C189" s="32">
+      <c r="C189" s="21">
         <v>595.30643677467685</v>
       </c>
     </row>
@@ -2690,10 +2684,10 @@
       <c r="A190" s="4">
         <v>41244</v>
       </c>
-      <c r="B190" s="28">
+      <c r="B190" s="19">
         <v>548.36146384740505</v>
       </c>
-      <c r="C190" s="32">
+      <c r="C190" s="21">
         <v>598.57582236642759</v>
       </c>
     </row>
@@ -2701,10 +2695,10 @@
       <c r="A191" s="4">
         <v>41275</v>
       </c>
-      <c r="B191" s="28">
+      <c r="B191" s="19">
         <v>554.26219577110749</v>
       </c>
-      <c r="C191" s="32">
+      <c r="C191" s="21">
         <v>604.86300525820002</v>
       </c>
     </row>
@@ -2712,10 +2706,10 @@
       <c r="A192" s="4">
         <v>41306</v>
       </c>
-      <c r="B192" s="28">
+      <c r="B192" s="19">
         <v>573.32304746414309</v>
       </c>
-      <c r="C192" s="32">
+      <c r="C192" s="21">
         <v>625.50485781477585</v>
       </c>
     </row>
@@ -2723,10 +2717,10 @@
       <c r="A193" s="4">
         <v>41334</v>
       </c>
-      <c r="B193" s="28">
+      <c r="B193" s="19">
         <v>588.19884222977953</v>
       </c>
-      <c r="C193" s="32">
+      <c r="C193" s="21">
         <v>641.57136609953284</v>
       </c>
     </row>
@@ -2734,10 +2728,10 @@
       <c r="A194" s="4">
         <v>41365</v>
       </c>
-      <c r="B194" s="28">
+      <c r="B194" s="19">
         <v>590.23186751441665</v>
       </c>
-      <c r="C194" s="32">
+      <c r="C194" s="21">
         <v>643.62511533560371</v>
       </c>
     </row>
@@ -2745,10 +2739,10 @@
       <c r="A195" s="4">
         <v>41395</v>
       </c>
-      <c r="B195" s="28">
+      <c r="B195" s="19">
         <v>598.10612154369369</v>
       </c>
-      <c r="C195" s="32">
+      <c r="C195" s="21">
         <v>652.04579309646954</v>
       </c>
     </row>
@@ -2756,10 +2750,10 @@
       <c r="A196" s="4">
         <v>41426</v>
       </c>
-      <c r="B196" s="28">
+      <c r="B196" s="19">
         <v>617.58349549016702</v>
       </c>
-      <c r="C196" s="32">
+      <c r="C196" s="21">
         <v>673.10846510199224</v>
       </c>
     </row>
@@ -2767,10 +2761,10 @@
       <c r="A197" s="4">
         <v>41456</v>
       </c>
-      <c r="B197" s="28">
+      <c r="B197" s="19">
         <v>634.00637291142982</v>
       </c>
-      <c r="C197" s="32">
+      <c r="C197" s="21">
         <v>690.8321103284394</v>
       </c>
     </row>
@@ -2778,10 +2772,10 @@
       <c r="A198" s="4">
         <v>41487</v>
       </c>
-      <c r="B198" s="28">
+      <c r="B198" s="19">
         <v>644.82603430430277</v>
       </c>
-      <c r="C198" s="32">
+      <c r="C198" s="21">
         <v>702.44281873687999</v>
       </c>
     </row>
@@ -2789,10 +2783,10 @@
       <c r="A199" s="4">
         <v>41518</v>
       </c>
-      <c r="B199" s="28">
+      <c r="B199" s="19">
         <v>655.0407467100398</v>
       </c>
-      <c r="C199" s="32">
+      <c r="C199" s="21">
         <v>713.3887409411883</v>
       </c>
     </row>
@@ -2800,10 +2794,10 @@
       <c r="A200" s="4">
         <v>41548</v>
       </c>
-      <c r="B200" s="28">
+      <c r="B200" s="19">
         <v>687.3608901375128</v>
       </c>
-      <c r="C200" s="32">
+      <c r="C200" s="21">
         <v>748.39740634117857</v>
       </c>
     </row>
@@ -2811,10 +2805,10 @@
       <c r="A201" s="4">
         <v>41579</v>
       </c>
-      <c r="B201" s="28">
+      <c r="B201" s="19">
         <v>716.88438414904635</v>
       </c>
-      <c r="C201" s="32">
+      <c r="C201" s="21">
         <v>780.34400359191579</v>
       </c>
     </row>
@@ -2822,10 +2816,10 @@
       <c r="A202" s="4">
         <v>41609</v>
       </c>
-      <c r="B202" s="28">
+      <c r="B202" s="19">
         <v>738.89064320567786</v>
       </c>
-      <c r="C202" s="32">
+      <c r="C202" s="21">
         <v>804.09371098210522</v>
       </c>
     </row>
@@ -2833,10 +2827,10 @@
       <c r="A203" s="4">
         <v>41640</v>
       </c>
-      <c r="B203" s="28">
+      <c r="B203" s="19">
         <v>763.48529055153028</v>
       </c>
-      <c r="C203" s="32">
+      <c r="C203" s="21">
         <v>830.64736916787092</v>
       </c>
     </row>
@@ -2844,10 +2838,10 @@
       <c r="A204" s="4">
         <v>41671</v>
       </c>
-      <c r="B204" s="28">
+      <c r="B204" s="19">
         <v>830.5057045689781</v>
       </c>
-      <c r="C204" s="32">
+      <c r="C204" s="21">
         <v>903.33359244723204</v>
       </c>
     </row>
@@ -2855,10 +2849,10 @@
       <c r="A205" s="4">
         <v>41699</v>
       </c>
-      <c r="B205" s="28">
+      <c r="B205" s="19">
         <v>858.80938340972932</v>
       </c>
-      <c r="C205" s="32">
+      <c r="C205" s="21">
         <v>933.88165222781015</v>
       </c>
     </row>
@@ -2866,10 +2860,10 @@
       <c r="A206" s="4">
         <v>41730</v>
       </c>
-      <c r="B206" s="28">
+      <c r="B206" s="19">
         <v>868.96459263640406</v>
       </c>
-      <c r="C206" s="32">
+      <c r="C206" s="21">
         <v>944.68422676791829</v>
       </c>
     </row>
@@ -2877,10 +2871,10 @@
       <c r="A207" s="4">
         <v>41760</v>
       </c>
-      <c r="B207" s="28">
+      <c r="B207" s="19">
         <v>883.47345113115477</v>
       </c>
-      <c r="C207" s="32">
+      <c r="C207" s="21">
         <v>960.21305820341581</v>
       </c>
     </row>
@@ -2888,10 +2882,10 @@
       <c r="A208" s="4">
         <v>41791</v>
       </c>
-      <c r="B208" s="28">
+      <c r="B208" s="19">
         <v>899.35088274434418</v>
       </c>
-      <c r="C208" s="32">
+      <c r="C208" s="21">
         <v>977.22099961615879</v>
       </c>
     </row>
@@ -2899,10 +2893,10 @@
       <c r="A209" s="4">
         <v>41821</v>
       </c>
-      <c r="B209" s="28">
+      <c r="B209" s="19">
         <v>911.69779239982256</v>
       </c>
-      <c r="C209" s="32">
+      <c r="C209" s="21">
         <v>990.3849910759883</v>
       </c>
     </row>
@@ -2910,10 +2904,10 @@
       <c r="A210" s="4">
         <v>41852</v>
       </c>
-      <c r="B210" s="28">
+      <c r="B210" s="19">
         <v>934.53709596332999</v>
       </c>
-      <c r="C210" s="32">
+      <c r="C210" s="21">
         <v>1014.9372994276551</v>
       </c>
     </row>
@@ -2921,10 +2915,10 @@
       <c r="A211" s="4">
         <v>41883</v>
       </c>
-      <c r="B211" s="28">
+      <c r="B211" s="19">
         <v>960.80774951944409</v>
       </c>
-      <c r="C211" s="32">
+      <c r="C211" s="21">
         <v>1043.2026621537805</v>
       </c>
     </row>
@@ -2932,10 +2926,10 @@
       <c r="A212" s="4">
         <v>41913</v>
       </c>
-      <c r="B212" s="28">
+      <c r="B212" s="19">
         <v>969.69355759278403</v>
       </c>
-      <c r="C212" s="32">
+      <c r="C212" s="21">
         <v>1052.5826833142864</v>
       </c>
     </row>
@@ -2943,10 +2937,10 @@
       <c r="A213" s="4">
         <v>41944</v>
       </c>
-      <c r="B213" s="28">
+      <c r="B213" s="19">
         <v>982.12972201685648</v>
       </c>
-      <c r="C213" s="32">
+      <c r="C213" s="21">
         <v>1065.8107248302881</v>
       </c>
     </row>
@@ -2954,10 +2948,10 @@
       <c r="A214" s="4">
         <v>41974</v>
       </c>
-      <c r="B214" s="28">
+      <c r="B214" s="19">
         <v>995.02207748040814</v>
       </c>
-      <c r="C214" s="32">
+      <c r="C214" s="21">
         <v>1079.5269032705976</v>
       </c>
     </row>
@@ -2965,10 +2959,10 @@
       <c r="A215" s="4">
         <v>42005</v>
       </c>
-      <c r="B215" s="28">
+      <c r="B215" s="19">
         <v>1010.0862989797425</v>
       </c>
-      <c r="C215" s="32">
+      <c r="C215" s="21">
         <v>1095.591753256861</v>
       </c>
     </row>
@@ -2976,10 +2970,10 @@
       <c r="A216" s="4">
         <v>42036</v>
       </c>
-      <c r="B216" s="28">
+      <c r="B216" s="19">
         <v>1015.114317610528</v>
       </c>
-      <c r="C216" s="32">
+      <c r="C216" s="21">
         <v>1100.7653460910515</v>
       </c>
     </row>
@@ -2987,10 +2981,10 @@
       <c r="A217" s="4">
         <v>42064</v>
       </c>
-      <c r="B217" s="28">
+      <c r="B217" s="19">
         <v>1035.047882596481</v>
       </c>
-      <c r="C217" s="32">
+      <c r="C217" s="21">
         <v>1122.0953379652121</v>
       </c>
     </row>
@@ -2998,10 +2992,10 @@
       <c r="A218" s="4">
         <v>42095</v>
       </c>
-      <c r="B218" s="28">
+      <c r="B218" s="19">
         <v>1045.7981236137807</v>
       </c>
-      <c r="C218" s="32">
+      <c r="C218" s="21">
         <v>1133.4612992498378</v>
       </c>
     </row>
@@ -3009,10 +3003,10 @@
       <c r="A219" s="4">
         <v>42125</v>
       </c>
-      <c r="B219" s="28">
+      <c r="B219" s="19">
         <v>1065.7911917787965</v>
       </c>
-      <c r="C219" s="32">
+      <c r="C219" s="21">
         <v>1154.8364575556084</v>
       </c>
     </row>
@@ -3020,10 +3014,10 @@
       <c r="A220" s="4">
         <v>42156</v>
       </c>
-      <c r="B220" s="28">
+      <c r="B220" s="19">
         <v>1067.3878604169747</v>
       </c>
-      <c r="C220" s="32">
+      <c r="C220" s="21">
         <v>1156.2723476525346</v>
       </c>
     </row>
@@ -3031,10 +3025,10 @@
       <c r="A221" s="4">
         <v>42186</v>
       </c>
-      <c r="B221" s="28">
+      <c r="B221" s="19">
         <v>1096.1675646902265</v>
       </c>
-      <c r="C221" s="32">
+      <c r="C221" s="21">
         <v>1187.1465886631277</v>
       </c>
     </row>
@@ -3042,10 +3036,10 @@
       <c r="A222" s="4">
         <v>42217</v>
       </c>
-      <c r="B222" s="28">
+      <c r="B222" s="19">
         <v>1118.8382759130563</v>
       </c>
-      <c r="C222" s="32">
+      <c r="C222" s="21">
         <v>1211.390708280371</v>
       </c>
     </row>
@@ -3053,10 +3047,10 @@
       <c r="A223" s="4">
         <v>42248</v>
       </c>
-      <c r="B223" s="28">
+      <c r="B223" s="19">
         <v>1134.3487712553597</v>
       </c>
-      <c r="C223" s="32">
+      <c r="C223" s="21">
         <v>1227.8718672128446</v>
       </c>
     </row>
@@ -3064,10 +3058,10 @@
       <c r="A224" s="4">
         <v>42278</v>
       </c>
-      <c r="B224" s="28">
+      <c r="B224" s="19">
         <v>1139.6247197989057</v>
       </c>
-      <c r="C224" s="32">
+      <c r="C224" s="21">
         <v>1233.2690320370011</v>
       </c>
     </row>
@@ -3075,10 +3069,10 @@
       <c r="A225" s="4">
         <v>42309</v>
       </c>
-      <c r="B225" s="28">
+      <c r="B225" s="19">
         <v>1177.8455951500812</v>
       </c>
-      <c r="C225" s="32">
+      <c r="C225" s="21">
         <v>1274.3063540211506</v>
       </c>
     </row>
@@ -3086,10 +3080,10 @@
       <c r="A226" s="4">
         <v>42339</v>
       </c>
-      <c r="B226" s="28">
+      <c r="B226" s="19">
         <v>1300.1444625166346</v>
       </c>
-      <c r="C226" s="32">
+      <c r="C226" s="21">
         <v>1406.2632204171118</v>
       </c>
     </row>
@@ -3097,10 +3091,10 @@
       <c r="A227" s="4">
         <v>42370</v>
       </c>
-      <c r="B227" s="28">
+      <c r="B227" s="19">
         <v>1322.5374922371727</v>
       </c>
-      <c r="C227" s="32">
+      <c r="C227" s="21">
         <v>1430.1201359285731</v>
       </c>
     </row>
@@ -3108,10 +3102,10 @@
       <c r="A228" s="4">
         <v>42401</v>
       </c>
-      <c r="B228" s="28">
+      <c r="B228" s="19">
         <v>1354.3320242495934</v>
       </c>
-      <c r="C228" s="32">
+      <c r="C228" s="21">
         <v>1464.1285118047192</v>
       </c>
     </row>
@@ -3119,10 +3113,10 @@
       <c r="A229" s="4">
         <v>42430</v>
       </c>
-      <c r="B229" s="28">
+      <c r="B229" s="19">
         <v>1387.3860402188377</v>
       </c>
-      <c r="C229" s="32">
+      <c r="C229" s="21">
         <v>1499.4807395244882</v>
       </c>
     </row>
@@ -3130,10 +3124,10 @@
       <c r="A230" s="4">
         <v>42461</v>
       </c>
-      <c r="B230" s="28">
+      <c r="B230" s="19">
         <v>1401.6668031938489</v>
       </c>
-      <c r="C230" s="32">
+      <c r="C230" s="21">
         <v>1514.53</v>
       </c>
     </row>
@@ -3141,10 +3135,10 @@
       <c r="A231" s="4">
         <v>42491</v>
       </c>
-      <c r="B231" s="28">
+      <c r="B231" s="19">
         <v>1459.6968196151352</v>
       </c>
-      <c r="C231" s="32">
+      <c r="C231" s="21">
         <v>1561.35</v>
       </c>
     </row>
@@ -3152,10 +3146,10 @@
       <c r="A232" s="4">
         <v>42522</v>
       </c>
-      <c r="B232" s="28">
+      <c r="B232" s="19">
         <v>1505.6939482578496</v>
       </c>
-      <c r="C232" s="32">
+      <c r="C232" s="21">
         <v>1614.32</v>
       </c>
     </row>
@@ -3163,10 +3157,10 @@
       <c r="A233" s="4">
         <v>42552</v>
       </c>
-      <c r="B233" s="28">
+      <c r="B233" s="19">
         <v>1543.1128394749182</v>
       </c>
-      <c r="C233" s="32">
+      <c r="C233" s="21">
         <v>1666.48</v>
       </c>
     </row>
@@ -3174,10 +3168,10 @@
       <c r="A234" s="4">
         <v>42583</v>
       </c>
-      <c r="B234" s="28">
+      <c r="B234" s="19">
         <v>1544.6471583640582</v>
       </c>
-      <c r="C234" s="32">
+      <c r="C234" s="21">
         <v>1675.05</v>
       </c>
     </row>
@@ -3185,10 +3179,10 @@
       <c r="A235" s="4">
         <v>42614</v>
       </c>
-      <c r="B235" s="28">
+      <c r="B235" s="19">
         <v>1579.4937136845349</v>
       </c>
-      <c r="C235" s="32">
+      <c r="C235" s="21">
         <v>1711.22</v>
       </c>
     </row>
@@ -3196,10 +3190,10 @@
       <c r="A236" s="4">
         <v>42644</v>
       </c>
-      <c r="B236" s="28">
+      <c r="B236" s="19">
         <v>1597.7384844920771</v>
       </c>
-      <c r="C236" s="32">
+      <c r="C236" s="21">
         <v>1739.34</v>
       </c>
     </row>
@@ -3207,10 +3201,10 @@
       <c r="A237" s="4">
         <v>42675</v>
       </c>
-      <c r="B237" s="28">
+      <c r="B237" s="19">
         <v>1617.8468202083104</v>
       </c>
-      <c r="C237" s="32">
+      <c r="C237" s="21">
         <v>1762.65</v>
       </c>
     </row>
@@ -3218,10 +3212,10 @@
       <c r="A238" s="4">
         <v>42705</v>
       </c>
-      <c r="B238" s="28">
+      <c r="B238" s="19">
         <v>1621.9015741436694</v>
       </c>
-      <c r="C238" s="32">
+      <c r="C238" s="21">
         <v>1766.62</v>
       </c>
     </row>
@@ -3229,10 +3223,10 @@
       <c r="A239" s="4">
         <v>42736</v>
       </c>
-      <c r="B239" s="28">
+      <c r="B239" s="19">
         <v>1643.098205816153</v>
       </c>
-      <c r="C239" s="32">
+      <c r="C239" s="21">
         <v>1789.15</v>
       </c>
     </row>
@@ -3240,10 +3234,10 @@
       <c r="A240" s="4">
         <v>42767</v>
       </c>
-      <c r="B240" s="28">
+      <c r="B240" s="19">
         <v>1673.2282713590198</v>
       </c>
-      <c r="C240" s="32">
+      <c r="C240" s="21">
         <v>1821.02</v>
       </c>
     </row>
@@ -3251,10 +3245,10 @@
       <c r="A241" s="4">
         <v>42795</v>
       </c>
-      <c r="B241" s="28">
+      <c r="B241" s="19">
         <v>1731.9930091933934</v>
       </c>
-      <c r="C241" s="32">
+      <c r="C241" s="21">
         <v>1876.56</v>
       </c>
     </row>
@@ -3262,10 +3256,10 @@
       <c r="A242" s="4">
         <v>42826</v>
       </c>
-      <c r="B242" s="28">
+      <c r="B242" s="19">
         <v>1771.3500727915637</v>
       </c>
-      <c r="C242" s="32">
+      <c r="C242" s="21">
         <v>1915.47</v>
       </c>
     </row>
@@ -3273,10 +3267,10 @@
       <c r="A243" s="4">
         <v>42856</v>
       </c>
-      <c r="B243" s="28">
+      <c r="B243" s="19">
         <v>1789.9549057485658</v>
       </c>
-      <c r="C243" s="32">
+      <c r="C243" s="21">
         <v>1937.24</v>
       </c>
     </row>
@@ -3284,10 +3278,10 @@
       <c r="A244" s="4">
         <v>42887</v>
       </c>
-      <c r="B244" s="28">
+      <c r="B244" s="19">
         <v>1813.1610734714134</v>
       </c>
-      <c r="C244" s="32">
+      <c r="C244" s="21">
         <v>1956.42</v>
       </c>
     </row>
@@ -3295,10 +3289,10 @@
       <c r="A245" s="4">
         <v>42917</v>
       </c>
-      <c r="B245" s="28">
+      <c r="B245" s="19">
         <v>1835.3097613679192</v>
       </c>
-      <c r="C245" s="32">
+      <c r="C245" s="21">
         <v>1984.64</v>
       </c>
     </row>
@@ -3306,10 +3300,10 @@
       <c r="A246" s="4">
         <v>42948</v>
       </c>
-      <c r="B246" s="28">
+      <c r="B246" s="19">
         <v>1875.8086436742867</v>
       </c>
-      <c r="C246" s="32">
+      <c r="C246" s="21">
         <v>2021.98</v>
       </c>
     </row>
@@ -3317,10 +3311,10 @@
       <c r="A247" s="4">
         <v>42979</v>
       </c>
-      <c r="B247" s="28">
+      <c r="B247" s="19">
         <v>1911.7272759352725</v>
       </c>
-      <c r="C247" s="32">
+      <c r="C247" s="21">
         <v>2049.39</v>
       </c>
     </row>
@@ -3328,10 +3322,10 @@
       <c r="A248" s="4">
         <v>43009</v>
       </c>
-      <c r="B248" s="28">
+      <c r="B248" s="19">
         <v>1941.3350891712648</v>
       </c>
-      <c r="C248" s="32">
+      <c r="C248" s="21">
         <v>2079.23</v>
       </c>
     </row>
@@ -3339,10 +3333,10 @@
       <c r="A249" s="4">
         <v>43040</v>
       </c>
-      <c r="B249" s="28">
+      <c r="B249" s="19">
         <v>1961.0249742813694</v>
       </c>
-      <c r="C249" s="32">
+      <c r="C249" s="21">
         <v>2125.84</v>
       </c>
     </row>
@@ -3350,10 +3344,10 @@
       <c r="A250" s="4">
         <v>43070</v>
       </c>
-      <c r="B250" s="28">
+      <c r="B250" s="19">
         <v>1971.4667766157063</v>
       </c>
-      <c r="C250" s="32">
+      <c r="C250" s="21">
         <v>2150.29</v>
       </c>
     </row>
@@ -3361,10 +3355,10 @@
       <c r="A251" s="4">
         <v>43101</v>
       </c>
-      <c r="B251" s="28">
+      <c r="B251" s="19">
         <v>2022.9686392010642</v>
       </c>
-      <c r="C251" s="32">
+      <c r="C251" s="21">
         <v>2197.2600000000002</v>
       </c>
     </row>
@@ -3372,10 +3366,10 @@
       <c r="A252" s="4">
         <v>43132</v>
       </c>
-      <c r="B252" s="28">
+      <c r="B252" s="19">
         <v>2072.4690752439292</v>
       </c>
-      <c r="C252" s="32">
+      <c r="C252" s="21">
         <v>2261.23</v>
       </c>
     </row>
@@ -3383,10 +3377,10 @@
       <c r="A253" s="4">
         <v>43160</v>
       </c>
-      <c r="B253" s="28">
+      <c r="B253" s="19">
         <v>2113.1739390502125</v>
       </c>
-      <c r="C253" s="32">
+      <c r="C253" s="21">
         <v>2294.56</v>
       </c>
     </row>
@@ -3394,10 +3388,10 @@
       <c r="A254" s="4">
         <v>43191</v>
       </c>
-      <c r="B254" s="28">
+      <c r="B254" s="19">
         <v>2130.1276762047364</v>
       </c>
-      <c r="C254" s="32">
+      <c r="C254" s="21">
         <v>2308.11</v>
       </c>
     </row>
@@ -3405,10 +3399,10 @@
       <c r="A255" s="4">
         <v>43221</v>
       </c>
-      <c r="B255" s="28">
+      <c r="B255" s="19">
         <v>2208.5271544956931</v>
       </c>
-      <c r="C255" s="32">
+      <c r="C255" s="21">
         <v>2418.65</v>
       </c>
     </row>
@@ -3416,10 +3410,10 @@
       <c r="A256" s="4">
         <v>43252</v>
       </c>
-      <c r="B256" s="28">
+      <c r="B256" s="19">
         <v>2313.3522751341729</v>
       </c>
-      <c r="C256" s="32">
+      <c r="C256" s="21">
         <v>2537.4499999999998</v>
       </c>
     </row>
@@ -3427,10 +3421,10 @@
       <c r="A257" s="4">
         <v>43282</v>
       </c>
-      <c r="B257" s="28">
+      <c r="B257" s="19">
         <v>2404.7967077859666</v>
       </c>
-      <c r="C257" s="32">
+      <c r="C257" s="21">
         <v>2627.37</v>
       </c>
     </row>
@@ -3438,10 +3432,10 @@
       <c r="A258" s="4">
         <v>43313</v>
       </c>
-      <c r="B258" s="28">
+      <c r="B258" s="19">
         <v>2488.6165811377118</v>
       </c>
-      <c r="C258" s="32">
+      <c r="C258" s="21">
         <v>2701.48</v>
       </c>
     </row>
@@ -3449,10 +3443,10 @@
       <c r="A259" s="4">
         <v>43344</v>
       </c>
-      <c r="B259" s="28">
+      <c r="B259" s="19">
         <v>2669.0742159816591</v>
       </c>
-      <c r="C259" s="32">
+      <c r="C259" s="21">
         <v>2931.88</v>
       </c>
     </row>
@@ -3460,10 +3454,10 @@
       <c r="A260" s="4">
         <v>43374</v>
       </c>
-      <c r="B260" s="28">
+      <c r="B260" s="19">
         <v>2831.1913878251894</v>
       </c>
-      <c r="C260" s="32">
+      <c r="C260" s="21">
         <v>3150.62</v>
       </c>
     </row>
@@ -3471,10 +3465,10 @@
       <c r="A261" s="4">
         <v>43405</v>
       </c>
-      <c r="B261" s="28">
+      <c r="B261" s="19">
         <v>2920.3424516511445</v>
       </c>
-      <c r="C261" s="32">
+      <c r="C261" s="21">
         <v>3276.02</v>
       </c>
     </row>
@@ -3482,10 +3476,10 @@
       <c r="A262" s="4">
         <v>43435</v>
       </c>
-      <c r="B262" s="28">
+      <c r="B262" s="19">
         <v>2967.6987338129907</v>
       </c>
-      <c r="C262" s="32">
+      <c r="C262" s="21">
         <v>3300.17</v>
       </c>
     </row>
@@ -3493,10 +3487,10 @@
       <c r="A263" s="4">
         <v>43466</v>
       </c>
-      <c r="B263" s="28">
+      <c r="B263" s="19">
         <v>3080.2408621412465</v>
       </c>
-      <c r="C263" s="32">
+      <c r="C263" s="21">
         <v>3423.03</v>
       </c>
     </row>
@@ -3504,10 +3498,10 @@
       <c r="A264" s="4">
         <v>43497</v>
       </c>
-      <c r="B264" s="28">
+      <c r="B264" s="19">
         <v>3249.2640908874805</v>
       </c>
-      <c r="C264" s="32">
+      <c r="C264" s="21">
         <v>3597.77</v>
       </c>
     </row>
@@ -3515,10 +3509,10 @@
       <c r="A265" s="4">
         <v>43525</v>
       </c>
-      <c r="B265" s="28">
+      <c r="B265" s="19">
         <v>3438.9487237867311</v>
       </c>
-      <c r="C265" s="32">
+      <c r="C265" s="21">
         <v>3767.01</v>
       </c>
     </row>
@@ -3526,10 +3520,10 @@
       <c r="A266" s="4">
         <v>43556</v>
       </c>
-      <c r="B266" s="28">
+      <c r="B266" s="19">
         <v>3508.0790345814567</v>
       </c>
-      <c r="C266" s="32">
+      <c r="C266" s="21">
         <v>3833.28</v>
       </c>
     </row>
@@ -3537,10 +3531,10 @@
       <c r="A267" s="4">
         <v>43586</v>
       </c>
-      <c r="B267" s="28">
+      <c r="B267" s="19">
         <v>3600.5841908627408</v>
       </c>
-      <c r="C267" s="32">
+      <c r="C267" s="21">
         <v>3911.58</v>
       </c>
     </row>
@@ -3548,10 +3542,10 @@
       <c r="A268" s="4">
         <v>43617</v>
       </c>
-      <c r="B268" s="28">
+      <c r="B268" s="19">
         <v>3697.2138428470721</v>
       </c>
-      <c r="C268" s="32">
+      <c r="C268" s="21">
         <v>4016.09</v>
       </c>
     </row>
@@ -3559,10 +3553,10 @@
       <c r="A269" s="4">
         <v>43647</v>
       </c>
-      <c r="B269" s="28">
+      <c r="B269" s="19">
         <v>3790.3839787737552</v>
       </c>
-      <c r="C269" s="32">
+      <c r="C269" s="21">
         <v>4133.91</v>
       </c>
     </row>
@@ -3570,10 +3564,10 @@
       <c r="A270" s="4">
         <v>43678</v>
       </c>
-      <c r="B270" s="28">
+      <c r="B270" s="19">
         <v>3953.9641058371631</v>
       </c>
-      <c r="C270" s="32">
+      <c r="C270" s="21">
         <v>4290.72</v>
       </c>
     </row>
@@ -3581,10 +3575,10 @@
       <c r="A271" s="4">
         <v>43709</v>
       </c>
-      <c r="B271" s="28">
+      <c r="B271" s="19">
         <v>4177.6454176320394</v>
       </c>
-      <c r="C271" s="32">
+      <c r="C271" s="21">
         <v>4502.88</v>
       </c>
     </row>
@@ -3592,10 +3586,10 @@
       <c r="A272" s="4">
         <v>43739</v>
       </c>
-      <c r="B272" s="28">
+      <c r="B272" s="19">
         <v>4281.4892878181618</v>
       </c>
-      <c r="C272" s="32">
+      <c r="C272" s="21">
         <v>4596.2</v>
       </c>
     </row>
@@ -3603,10 +3597,10 @@
       <c r="A273" s="4">
         <v>43770</v>
       </c>
-      <c r="B273" s="28">
+      <c r="B273" s="19">
         <v>4523.9587074479177</v>
       </c>
-      <c r="C273" s="32">
+      <c r="C273" s="21">
         <v>4886.34</v>
       </c>
     </row>
@@ -3614,10 +3608,10 @@
       <c r="A274" s="4">
         <v>43800</v>
       </c>
-      <c r="B274" s="28">
+      <c r="B274" s="19">
         <v>4651.0038796521658</v>
       </c>
-      <c r="C274" s="32">
+      <c r="C274" s="21">
         <v>5043.41</v>
       </c>
     </row>
@@ -3625,10 +3619,10 @@
       <c r="A275" s="4">
         <v>43831</v>
       </c>
-      <c r="B275" s="28">
+      <c r="B275" s="19">
         <v>4866.9811589698602</v>
       </c>
-      <c r="C275" s="32">
+      <c r="C275" s="21">
         <v>5332.94</v>
       </c>
     </row>
@@ -3636,10 +3630,10 @@
       <c r="A276" s="4">
         <v>43862</v>
       </c>
-      <c r="B276" s="28">
+      <c r="B276" s="19">
         <v>4985.433496634294</v>
       </c>
-      <c r="C276" s="32">
+      <c r="C276" s="21">
         <v>5432.32</v>
       </c>
     </row>
@@ -3647,10 +3641,10 @@
       <c r="A277" s="4">
         <v>43891</v>
       </c>
-      <c r="B277" s="28">
+      <c r="B277" s="19">
         <v>5174.2958254354535</v>
       </c>
-      <c r="C277" s="32">
+      <c r="C277" s="21">
         <v>5615.94</v>
       </c>
     </row>
@@ -3658,10 +3652,10 @@
       <c r="A278" s="4">
         <v>43922</v>
       </c>
-      <c r="B278" s="28">
+      <c r="B278" s="19">
         <v>5340.1774308325712</v>
       </c>
-      <c r="C278" s="32">
+      <c r="C278" s="21">
         <v>5791.79</v>
       </c>
     </row>
@@ -3669,10 +3663,10 @@
       <c r="A279" s="4">
         <v>43952</v>
       </c>
-      <c r="B279" s="28">
+      <c r="B279" s="19">
         <v>5353.7170651735232</v>
       </c>
-      <c r="C279" s="32">
+      <c r="C279" s="21">
         <v>5785.01</v>
       </c>
     </row>
@@ -3680,10 +3674,10 @@
       <c r="A280" s="4">
         <v>43983</v>
       </c>
-      <c r="B280" s="28">
+      <c r="B280" s="19">
         <v>5415.9851104080453</v>
       </c>
-      <c r="C280" s="32">
+      <c r="C280" s="21">
         <v>5834.66</v>
       </c>
     </row>
@@ -3691,10 +3685,10 @@
       <c r="A281" s="4">
         <v>44013</v>
       </c>
-      <c r="B281" s="28">
+      <c r="B281" s="19">
         <v>5487.9537489575241</v>
       </c>
-      <c r="C281" s="32">
+      <c r="C281" s="21">
         <v>5929.29</v>
       </c>
     </row>
@@ -3702,10 +3696,10 @@
       <c r="A282" s="4">
         <v>44044</v>
       </c>
-      <c r="B282" s="28">
+      <c r="B282" s="19">
         <v>5691.1163839379078</v>
       </c>
-      <c r="C282" s="32">
+      <c r="C282" s="21">
         <v>6081.69</v>
       </c>
     </row>
@@ -3713,10 +3707,10 @@
       <c r="A283" s="4">
         <v>44075</v>
       </c>
-      <c r="B283" s="28">
+      <c r="B283" s="19">
         <v>5851.9100840969368</v>
       </c>
-      <c r="C283" s="32">
+      <c r="C283" s="21">
         <v>6288.17</v>
       </c>
     </row>
@@ -3724,10 +3718,10 @@
       <c r="A284" s="4">
         <v>44105</v>
       </c>
-      <c r="B284" s="28">
+      <c r="B284" s="19">
         <v>6132.1438599790545</v>
       </c>
-      <c r="C284" s="32">
+      <c r="C284" s="21">
         <v>6702.33</v>
       </c>
     </row>
@@ -3735,10 +3729,10 @@
       <c r="A285" s="4">
         <v>44136</v>
       </c>
-      <c r="B285" s="28">
+      <c r="B285" s="19">
         <v>6263.7838793428509</v>
       </c>
-      <c r="C285" s="32">
+      <c r="C285" s="21">
         <v>6981.61</v>
       </c>
     </row>
@@ -3746,10 +3740,10 @@
       <c r="A286" s="4">
         <v>44166</v>
       </c>
-      <c r="B286" s="28">
+      <c r="B286" s="19">
         <v>6437.2138146660327</v>
       </c>
-      <c r="C286" s="32">
+      <c r="C286" s="21">
         <v>7340.12</v>
       </c>
     </row>
@@ -3757,10 +3751,10 @@
       <c r="A287" s="4">
         <v>44197</v>
       </c>
-      <c r="B287" s="28">
+      <c r="B287" s="19">
         <v>6694.157083943448</v>
       </c>
-      <c r="C287" s="32">
+      <c r="C287" s="21">
         <v>7677.09</v>
       </c>
     </row>
@@ -3768,10 +3762,10 @@
       <c r="A288" s="4">
         <v>44228</v>
       </c>
-      <c r="B288" s="28">
+      <c r="B288" s="19">
         <v>6961.2404818624091</v>
       </c>
-      <c r="C288" s="32">
+      <c r="C288" s="21">
         <v>7953.14</v>
       </c>
     </row>
@@ -3779,10 +3773,10 @@
       <c r="A289" s="4">
         <v>44256</v>
       </c>
-      <c r="B289" s="28">
+      <c r="B289" s="19">
         <v>7301.7846677790576</v>
       </c>
-      <c r="C289" s="32">
+      <c r="C289" s="21">
         <v>8312.33</v>
       </c>
     </row>
@@ -3790,10 +3784,10 @@
       <c r="A290" s="4">
         <v>44287</v>
       </c>
-      <c r="B290" s="28">
+      <c r="B290" s="19">
         <v>7645.438039013341</v>
       </c>
-      <c r="C290" s="32">
+      <c r="C290" s="21">
         <v>8633.31</v>
       </c>
     </row>
@@ -3801,10 +3795,10 @@
       <c r="A291" s="4">
         <v>44317</v>
       </c>
-      <c r="B291" s="28">
+      <c r="B291" s="19">
         <v>7878.7550680602044</v>
       </c>
-      <c r="C291" s="32">
+      <c r="C291" s="21">
         <v>8874.89</v>
       </c>
     </row>
@@ -3812,10 +3806,10 @@
       <c r="A292" s="4">
         <v>44348</v>
       </c>
-      <c r="B292" s="28">
+      <c r="B292" s="19">
         <v>8149.2785192179226</v>
       </c>
-      <c r="C292" s="32">
+      <c r="C292" s="21">
         <v>9195.41</v>
       </c>
     </row>
@@ -3823,10 +3817,10 @@
       <c r="A293" s="4">
         <v>44378</v>
       </c>
-      <c r="B293" s="28">
+      <c r="B293" s="19">
         <v>8440.247661619298</v>
       </c>
-      <c r="C293" s="32">
+      <c r="C293" s="21">
         <v>9386.0400000000009</v>
       </c>
     </row>
@@ -3834,10 +3828,10 @@
       <c r="A294" s="4">
         <v>44409</v>
       </c>
-      <c r="B294" s="28">
+      <c r="B294" s="19">
         <v>8561.3047732118066</v>
       </c>
-      <c r="C294" s="32">
+      <c r="C294" s="21">
         <v>9454.1299999999992</v>
       </c>
     </row>
@@ -3845,10 +3839,10 @@
       <c r="A295" s="4">
         <v>44440</v>
       </c>
-      <c r="B295" s="28">
+      <c r="B295" s="19">
         <v>8840.8508628264863</v>
       </c>
-      <c r="C295" s="32">
+      <c r="C295" s="21">
         <v>9713.2099999999991</v>
       </c>
     </row>
@@ -3856,10 +3850,10 @@
       <c r="A296" s="4">
         <v>44470</v>
       </c>
-      <c r="B296" s="28">
+      <c r="B296" s="19">
         <v>9155.2564829742405</v>
       </c>
-      <c r="C296" s="32">
+      <c r="C296" s="21">
         <v>10008.200000000001</v>
       </c>
     </row>
@@ -3867,10 +3861,10 @@
       <c r="A297" s="4">
         <v>44501</v>
       </c>
-      <c r="B297" s="28">
+      <c r="B297" s="19">
         <v>9320.4066107614181</v>
       </c>
-      <c r="C297" s="32">
+      <c r="C297" s="21">
         <v>10266.790000000001</v>
       </c>
     </row>
@@ -3878,10 +3872,10 @@
       <c r="A298" s="4">
         <v>44531</v>
       </c>
-      <c r="B298" s="28">
+      <c r="B298" s="19">
         <v>9681.6527483704358</v>
       </c>
-      <c r="C298" s="32">
+      <c r="C298" s="21">
         <v>10667.86</v>
       </c>
     </row>
@@ -3889,10 +3883,10 @@
       <c r="A299" s="4">
         <v>44562</v>
       </c>
-      <c r="B299" s="28">
+      <c r="B299" s="19">
         <v>10181.738526430876</v>
       </c>
-      <c r="C299" s="32">
+      <c r="C299" s="21">
         <v>11111.27</v>
       </c>
     </row>
@@ -3900,10 +3894,10 @@
       <c r="A300" s="4">
         <v>44593</v>
       </c>
-      <c r="B300" s="28">
+      <c r="B300" s="19">
         <v>11052.698049844454</v>
       </c>
-      <c r="C300" s="32">
+      <c r="C300" s="21">
         <v>12108.08</v>
       </c>
     </row>
@@ -3911,10 +3905,10 @@
       <c r="A301" s="4">
         <v>44621</v>
       </c>
-      <c r="B301" s="28">
+      <c r="B301" s="19">
         <v>11723.844165028251</v>
       </c>
-      <c r="C301" s="32">
+      <c r="C301" s="21">
         <v>12900.45</v>
       </c>
     </row>
@@ -3922,10 +3916,10 @@
       <c r="A302" s="4">
         <v>44652</v>
       </c>
-      <c r="B302" s="28">
+      <c r="B302" s="19">
         <v>12653.19538891415</v>
       </c>
-      <c r="C302" s="32">
+      <c r="C302" s="21">
         <v>13762.77</v>
       </c>
     </row>
@@ -3933,10 +3927,10 @@
       <c r="A303" s="4">
         <v>44682</v>
       </c>
-      <c r="B303" s="28">
+      <c r="B303" s="19">
         <v>12961.090696143287</v>
       </c>
-      <c r="C303" s="32">
+      <c r="C303" s="21">
         <v>14400.84</v>
       </c>
     </row>
@@ -3944,10 +3938,10 @@
       <c r="A304" s="4">
         <v>44713</v>
       </c>
-      <c r="B304" s="28">
+      <c r="B304" s="19">
         <v>13604.220083535327</v>
       </c>
-      <c r="C304" s="32">
+      <c r="C304" s="21">
         <v>15056.75</v>
       </c>
     </row>
@@ -3955,10 +3949,10 @@
       <c r="A305" s="4">
         <v>44743</v>
       </c>
-      <c r="B305" s="28">
+      <c r="B305" s="19">
         <v>14405.927653536117</v>
       </c>
-      <c r="C305" s="32">
+      <c r="C305" s="21">
         <v>16008.28</v>
       </c>
     </row>
@@ -3966,10 +3960,10 @@
       <c r="A306" s="4">
         <v>44774</v>
       </c>
-      <c r="B306" s="28">
+      <c r="B306" s="19">
         <v>15394.333935638158</v>
       </c>
-      <c r="C306" s="32">
+      <c r="C306" s="21">
         <v>17148.8</v>
       </c>
     </row>
@@ -3977,10 +3971,10 @@
       <c r="A307" s="4">
         <v>44805</v>
       </c>
-      <c r="B307" s="28">
+      <c r="B307" s="19">
         <v>16481.105304408866</v>
       </c>
-      <c r="C307" s="32">
+      <c r="C307" s="21">
         <v>18359.84</v>
       </c>
     </row>
@@ -3988,10 +3982,10 @@
       <c r="A308" s="4">
         <v>44835</v>
       </c>
-      <c r="B308" s="28">
+      <c r="B308" s="19">
         <v>17585.82301409747</v>
       </c>
-      <c r="C308" s="32">
+      <c r="C308" s="21">
         <v>20098.919999999998</v>
       </c>
     </row>
@@ -3999,10 +3993,10 @@
       <c r="A309" s="4">
         <v>44866</v>
       </c>
-      <c r="B309" s="28">
+      <c r="B309" s="19">
         <v>18126.981827621526</v>
       </c>
-      <c r="C309" s="32">
+      <c r="C309" s="21">
         <v>20715.93</v>
       </c>
     </row>
@@ -4010,11 +4004,143 @@
       <c r="A310" s="4">
         <v>44896</v>
       </c>
-      <c r="B310" s="28">
+      <c r="B310" s="19">
         <v>19118.841138174921</v>
       </c>
-      <c r="C310" s="32">
+      <c r="C310" s="21">
         <v>21743.48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B311" s="19">
+        <v>20389.662653776304</v>
+      </c>
+      <c r="C311" s="21">
+        <v>23315.040000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B312" s="19">
+        <v>22474.260308991681</v>
+      </c>
+      <c r="C312" s="21">
+        <v>26046.32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B313" s="19">
+        <v>24647.799802729947</v>
+      </c>
+      <c r="C313" s="21">
+        <v>28388.12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B314" s="19">
+        <v>27149.357536527747</v>
+      </c>
+      <c r="C314" s="21">
+        <v>30468.76</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B315" s="19">
+        <v>28692.032462577645</v>
+      </c>
+      <c r="C315" s="21">
+        <v>32055.87</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B316" s="19">
+        <v>29720.796521549106</v>
+      </c>
+      <c r="C316" s="21">
+        <v>33730.51</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B317" s="19">
+        <v>31491.947100447051</v>
+      </c>
+      <c r="C317" s="21">
+        <v>36130.15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B318" s="19">
+        <v>36267.345965131317</v>
+      </c>
+      <c r="C318" s="21">
+        <v>42262.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B319" s="19">
+        <v>41043.130842390223</v>
+      </c>
+      <c r="C319" s="21">
+        <v>47857.79</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="4">
+        <v>45200</v>
+      </c>
+      <c r="B320" s="19">
+        <v>44613.812033930481</v>
+      </c>
+      <c r="C320" s="21">
+        <v>51974.93</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="4">
+        <v>45231</v>
+      </c>
+      <c r="B321" s="19">
+        <v>52088.870934481594</v>
+      </c>
+      <c r="C321" s="21">
+        <v>59886.86</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="4">
+        <v>45261</v>
+      </c>
+      <c r="B322" s="19">
+        <v>67475.812242744811</v>
+      </c>
+      <c r="C322" s="21">
+        <v>77889.58</v>
       </c>
     </row>
   </sheetData>
@@ -4030,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D46B19-DE45-48AA-9B87-B58C189B44BA}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322:C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4079,28 +4205,28 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -4112,8 +4238,8 @@
       <c r="C10" s="10">
         <v>4477.8832849174996</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -4125,8 +4251,8 @@
       <c r="C11" s="10">
         <v>286890.20625145244</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -4138,8 +4264,8 @@
       <c r="C12" s="10">
         <v>628608.61898675351</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -4151,8 +4277,8 @@
       <c r="C13" s="10">
         <v>1731488.1942830582</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -4164,8 +4290,8 @@
       <c r="C14" s="10">
         <v>45.565412096211944</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -4177,8 +4303,8 @@
       <c r="C15" s="10">
         <v>76.300510370671617</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -4190,8 +4316,8 @@
       <c r="C16" s="10">
         <v>114.34124854752497</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -4203,8 +4329,8 @@
       <c r="C17" s="10">
         <v>179.88670288171042</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -4216,8 +4342,8 @@
       <c r="C18" s="10">
         <v>397.42951429235416</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
@@ -4229,8 +4355,8 @@
       <c r="C19" s="10">
         <v>971.6492621426911</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
@@ -4242,8 +4368,8 @@
       <c r="C20" s="10">
         <v>2228.0216244480594</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
@@ -4255,8 +4381,8 @@
       <c r="C21" s="10">
         <v>38137.856634905882</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -4268,8 +4394,8 @@
       <c r="C22" s="10">
         <v>378857.03491749935</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -4281,8 +4407,8 @@
       <c r="C23" s="10">
         <v>724865.30385777354</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
@@ -4294,8 +4420,8 @@
       <c r="C24" s="10">
         <v>1390251.3606785964</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
@@ -4307,8 +4433,8 @@
       <c r="C25" s="10">
         <v>1558804.0564722286</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -4320,7 +4446,7 @@
       <c r="C26" s="10">
         <v>173.76578988496399</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
@@ -4332,7 +4458,7 @@
       <c r="C27" s="10">
         <v>183.92119541598885</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
@@ -4344,7 +4470,7 @@
       <c r="C28" s="10">
         <v>194.02274012316988</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -4356,7 +4482,7 @@
       <c r="C29" s="10">
         <v>200.23764553799677</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
@@ -4368,7 +4494,7 @@
       <c r="C30" s="10">
         <v>202.42650717522659</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
@@ -4380,7 +4506,7 @@
       <c r="C31" s="10">
         <v>207.63284226121309</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
@@ -4392,7 +4518,7 @@
       <c r="C32" s="10">
         <v>211.8369435858703</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
@@ -4404,7 +4530,7 @@
       <c r="C33" s="10">
         <v>212.13666322914244</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
@@ -4416,7 +4542,7 @@
       <c r="C34" s="10">
         <v>211.38810338717175</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
@@ -4428,7 +4554,7 @@
       <c r="C35" s="10">
         <v>212.57092932256566</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
@@ -4440,7 +4566,7 @@
       <c r="C36" s="10">
         <v>212.75468978038575</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
@@ -4452,7 +4578,7 @@
       <c r="C37" s="10">
         <v>213.78459321984658</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
@@ -4464,7 +4590,7 @@
       <c r="C38" s="10">
         <v>215.24390471763886</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -4476,7 +4602,7 @@
       <c r="C39" s="10">
         <v>216.14940021496628</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -4488,7 +4614,7 @@
       <c r="C40" s="10">
         <v>213.65680577504065</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
@@ -4500,7 +4626,7 @@
       <c r="C41" s="10">
         <v>211.76259452707416</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
@@ -4512,7 +4638,7 @@
       <c r="C42" s="10">
         <v>211.35853273878692</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
@@ -4524,7 +4650,7 @@
       <c r="C43" s="10">
         <v>210.28300601324659</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
@@ -4536,7 +4662,7 @@
       <c r="C44" s="10">
         <v>210.66974785033696</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
@@ -4548,7 +4674,7 @@
       <c r="C45" s="10">
         <v>209.63477515686731</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
@@ -4560,7 +4686,7 @@
       <c r="C46" s="10">
         <v>209.38131245642575</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
@@ -4572,7 +4698,7 @@
       <c r="C47" s="10">
         <v>209.55028759005344</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
@@ -4584,7 +4710,7 @@
       <c r="C48" s="10">
         <v>209.08560597257727</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
@@ -4596,7 +4722,7 @@
       <c r="C49" s="10">
         <v>209.48692191494308</v>
       </c>
-      <c r="D49" s="21"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -4608,7 +4734,7 @@
       <c r="C50" s="10">
         <v>210.88096676737163</v>
       </c>
-      <c r="D50" s="21"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -4620,7 +4746,7 @@
       <c r="C51" s="10">
         <v>211.00769811759238</v>
       </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
@@ -4632,7 +4758,7 @@
       <c r="C52" s="10">
         <v>209.48692191494308</v>
       </c>
-      <c r="D52" s="21"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
@@ -4644,7 +4770,7 @@
       <c r="C53" s="10">
         <v>208.81102138043224</v>
       </c>
-      <c r="D53" s="21"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -4656,7 +4782,7 @@
       <c r="C54" s="10">
         <v>208.07175517081109</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -4668,7 +4794,7 @@
       <c r="C55" s="10">
         <v>207.90278003718339</v>
       </c>
-      <c r="D55" s="21"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
@@ -4680,7 +4806,7 @@
       <c r="C56" s="10">
         <v>206.99453869393446</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
@@ -4692,7 +4818,7 @@
       <c r="C57" s="10">
         <v>206.3186381594237</v>
       </c>
-      <c r="D57" s="21"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
@@ -4704,7 +4830,7 @@
       <c r="C58" s="10">
         <v>206.14966302579597</v>
       </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
@@ -4716,7 +4842,7 @@
       <c r="C59" s="10">
         <v>210.88096676737163</v>
       </c>
-      <c r="D59" s="21"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
@@ -4728,7 +4854,7 @@
       <c r="C60" s="10">
         <v>217.49211887055543</v>
       </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
@@ -4740,7 +4866,7 @@
       <c r="C61" s="10">
         <v>226.1098506855682</v>
       </c>
-      <c r="D61" s="21"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
@@ -4752,7 +4878,7 @@
       <c r="C62" s="10">
         <v>249.59739425981874</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -4764,7 +4890,7 @@
       <c r="C63" s="10">
         <v>259.60917092726004</v>
       </c>
-      <c r="D63" s="21"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -4776,7 +4902,7 @@
       <c r="C64" s="10">
         <v>269.00841273530096</v>
       </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
@@ -4788,7 +4914,7 @@
       <c r="C65" s="10">
         <v>277.58390076690677</v>
       </c>
-      <c r="D65" s="21"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
@@ -4800,7 +4926,7 @@
       <c r="C66" s="10">
         <v>284.08944341157331</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
@@ -4812,7 +4938,7 @@
       <c r="C67" s="10">
         <v>287.9125058099001</v>
       </c>
-      <c r="D67" s="21"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
@@ -4824,7 +4950,7 @@
       <c r="C68" s="10">
         <v>288.54616256100394</v>
       </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
@@ -4836,7 +4962,7 @@
       <c r="C69" s="10">
         <v>290.02469498024635</v>
       </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -4848,7 +4974,7 @@
       <c r="C70" s="10">
         <v>290.57386416453636</v>
       </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
@@ -4860,7 +4986,7 @@
       <c r="C71" s="10">
         <v>294.39692656286309</v>
       </c>
-      <c r="D71" s="21"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
@@ -4872,7 +4998,7 @@
       <c r="C72" s="10">
         <v>296.06555600743661</v>
       </c>
-      <c r="D72" s="21"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
@@ -4884,7 +5010,7 @@
       <c r="C73" s="10">
         <v>297.79755112712064</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
@@ -4896,7 +5022,7 @@
       <c r="C74" s="10">
         <v>297.96652626074831</v>
       </c>
-      <c r="D74" s="21"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -4908,7 +5034,7 @@
       <c r="C75" s="10">
         <v>296.80482221705785</v>
       </c>
-      <c r="D75" s="21"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
@@ -4920,7 +5046,7 @@
       <c r="C76" s="10">
         <v>296.55135951661634</v>
       </c>
-      <c r="D76" s="21"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
@@ -4932,7 +5058,7 @@
       <c r="C77" s="10">
         <v>297.88203869393448</v>
       </c>
-      <c r="D77" s="21"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
@@ -4944,7 +5070,7 @@
       <c r="C78" s="10">
         <v>297.94540436904487</v>
       </c>
-      <c r="D78" s="21"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -4956,7 +5082,7 @@
       <c r="C79" s="10">
         <v>298.07213571926565</v>
       </c>
-      <c r="D79" s="21"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
@@ -4968,7 +5094,7 @@
       <c r="C80" s="10">
         <v>299.82525273065301</v>
       </c>
-      <c r="D80" s="21"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
@@ -4980,7 +5106,7 @@
       <c r="C81" s="10">
         <v>300.56451894027424</v>
       </c>
-      <c r="D81" s="21"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
@@ -4992,7 +5118,7 @@
       <c r="C82" s="10">
         <v>301.19817569137808</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
@@ -5004,7 +5130,7 @@
       <c r="C83" s="10">
         <v>302.46548919358588</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
@@ -5016,7 +5142,7 @@
       <c r="C84" s="10">
         <v>302.76119567743433</v>
       </c>
-      <c r="D84" s="21"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
@@ -5028,7 +5154,7 @@
       <c r="C85" s="10">
         <v>304.57767836393214</v>
       </c>
-      <c r="D85" s="21"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
@@ -5040,7 +5166,7 @@
       <c r="C86" s="10">
         <v>307.17567104345807</v>
       </c>
-      <c r="D86" s="21"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
@@ -5052,7 +5178,7 @@
       <c r="C87" s="10">
         <v>309.01327562165932</v>
       </c>
-      <c r="D87" s="21"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
@@ -5064,7 +5190,7 @@
       <c r="C88" s="10">
         <v>311.16770857541246</v>
       </c>
-      <c r="D88" s="21"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
@@ -5076,7 +5202,7 @@
       <c r="C89" s="10">
         <v>312.60399721124799</v>
       </c>
-      <c r="D89" s="21"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
@@ -5088,7 +5214,7 @@
       <c r="C90" s="10">
         <v>313.68121368812456</v>
       </c>
-      <c r="D90" s="21"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
@@ -5100,7 +5226,7 @@
       <c r="C91" s="10">
         <v>315.66667150825003</v>
       </c>
-      <c r="D91" s="21"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
@@ -5112,7 +5238,7 @@
       <c r="C92" s="10">
         <v>316.91286311875433</v>
       </c>
-      <c r="D92" s="21"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
@@ -5124,7 +5250,7 @@
       <c r="C93" s="10">
         <v>316.91286311875433</v>
       </c>
-      <c r="D93" s="21"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
@@ -5136,7 +5262,7 @@
       <c r="C94" s="10">
         <v>319.57422147339071</v>
       </c>
-      <c r="D94" s="21"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
@@ -5148,7 +5274,7 @@
       <c r="C95" s="10">
         <v>324.30552521496628</v>
       </c>
-      <c r="D95" s="21"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
@@ -5160,7 +5286,7 @@
       <c r="C96" s="10">
         <v>327.38932140367189</v>
       </c>
-      <c r="D96" s="21"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
@@ -5172,7 +5298,7 @@
       <c r="C97" s="10">
         <v>332.43745352079941</v>
       </c>
-      <c r="D97" s="21"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
@@ -5184,7 +5310,7 @@
       <c r="C98" s="10">
         <v>334.0638391819661</v>
       </c>
-      <c r="D98" s="21"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
@@ -5196,7 +5322,7 @@
       <c r="C99" s="10">
         <v>336.07041889379508</v>
       </c>
-      <c r="D99" s="21"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
@@ -5208,7 +5334,7 @@
       <c r="C100" s="10">
         <v>339.15421508250057</v>
       </c>
-      <c r="D100" s="21"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
@@ -5220,7 +5346,7 @@
       <c r="C101" s="10">
         <v>342.55483964675807</v>
       </c>
-      <c r="D101" s="21"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
@@ -5232,7 +5358,7 @@
       <c r="C102" s="10">
         <v>344.05449395770393</v>
       </c>
-      <c r="D102" s="21"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
@@ -5244,7 +5370,7 @@
       <c r="C103" s="10">
         <v>348.06765338136182</v>
       </c>
-      <c r="D103" s="21"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
@@ -5256,7 +5382,7 @@
       <c r="C104" s="10">
         <v>350.77125551940503</v>
       </c>
-      <c r="D104" s="21"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
@@ -5268,7 +5394,7 @@
       <c r="C105" s="10">
         <v>355.0167557518011</v>
       </c>
-      <c r="D105" s="21"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
@@ -5280,7 +5406,7 @@
       <c r="C106" s="10">
         <v>358.96654950034855</v>
       </c>
-      <c r="D106" s="21"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
@@ -5292,7 +5418,7 @@
       <c r="C107" s="10">
         <v>363.55</v>
       </c>
-      <c r="D107" s="21"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
@@ -5304,7 +5430,7 @@
       <c r="C108" s="10">
         <v>364.71</v>
       </c>
-      <c r="D108" s="21"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
@@ -5316,7 +5442,7 @@
       <c r="C109" s="10">
         <v>368.51</v>
       </c>
-      <c r="D109" s="21"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
@@ -5328,7 +5454,7 @@
       <c r="C110" s="10">
         <v>368.24</v>
       </c>
-      <c r="D110" s="21"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
@@ -5340,7 +5466,7 @@
       <c r="C111" s="10">
         <v>366.56</v>
       </c>
-      <c r="D111" s="21"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
@@ -5352,7 +5478,7 @@
       <c r="C112" s="10">
         <v>367.48</v>
       </c>
-      <c r="D112" s="21"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
@@ -5364,7 +5490,7 @@
       <c r="C113" s="10">
         <v>367.05</v>
       </c>
-      <c r="D113" s="21"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
@@ -5376,7 +5502,7 @@
       <c r="C114" s="10">
         <v>368.51</v>
       </c>
-      <c r="D114" s="21"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
@@ -5388,7 +5514,7 @@
       <c r="C115" s="10">
         <v>371.38</v>
       </c>
-      <c r="D115" s="21"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
@@ -5400,7 +5526,7 @@
       <c r="C116" s="10">
         <v>375.9</v>
       </c>
-      <c r="D116" s="21"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
@@ -5412,7 +5538,7 @@
       <c r="C117" s="10">
         <v>382.27</v>
       </c>
-      <c r="D117" s="21"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
@@ -5424,7 +5550,7 @@
       <c r="C118" s="10">
         <v>389.28</v>
       </c>
-      <c r="D118" s="21"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
@@ -5436,7 +5562,7 @@
       <c r="C119" s="10">
         <v>393.66498737842409</v>
       </c>
-      <c r="D119" s="21"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
@@ -5448,7 +5574,7 @@
       <c r="C120" s="10">
         <v>396.38649581386687</v>
       </c>
-      <c r="D120" s="21"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
@@ -5460,7 +5586,7 @@
       <c r="C121" s="10">
         <v>400.61023012872084</v>
       </c>
-      <c r="D121" s="21"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
@@ -5472,7 +5598,7 @@
       <c r="C122" s="10">
         <v>410.31564839323158</v>
       </c>
-      <c r="D122" s="21"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
@@ -5484,7 +5610,7 @@
       <c r="C123" s="10">
         <v>419.70325585358978</v>
       </c>
-      <c r="D123" s="21"/>
+      <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
@@ -5496,7 +5622,7 @@
       <c r="C124" s="10">
         <v>431.56483838311556</v>
       </c>
-      <c r="D124" s="21"/>
+      <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
@@ -5508,7 +5634,7 @@
       <c r="C125" s="10">
         <v>443.00410640238329</v>
       </c>
-      <c r="D125" s="21"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
@@ -5520,7 +5646,7 @@
       <c r="C126" s="10">
         <v>457.55168219730086</v>
       </c>
-      <c r="D126" s="21"/>
+      <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
@@ -5532,7 +5658,7 @@
       <c r="C127" s="10">
         <v>466.76779396847741</v>
       </c>
-      <c r="D127" s="21"/>
+      <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
@@ -5544,7 +5670,7 @@
       <c r="C128" s="10">
         <v>473.51053875155168</v>
       </c>
-      <c r="D128" s="21"/>
+      <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
@@ -5556,7 +5682,7 @@
       <c r="C129" s="10">
         <v>470.72181429153835</v>
       </c>
-      <c r="D129" s="21"/>
+      <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
@@ -5568,7 +5694,7 @@
       <c r="C130" s="10">
         <v>475.23982962111472</v>
       </c>
-      <c r="D130" s="21"/>
+      <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
@@ -5580,7 +5706,7 @@
       <c r="C131" s="10">
         <v>485.0828760687682</v>
       </c>
-      <c r="D131" s="21"/>
+      <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
@@ -5592,7 +5718,7 @@
       <c r="C132" s="10">
         <v>496.99702638567442</v>
       </c>
-      <c r="D132" s="21"/>
+      <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
@@ -5604,7 +5730,7 @@
       <c r="C133" s="10">
         <v>518.99421363332863</v>
       </c>
-      <c r="D133" s="21"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
@@ -5616,7 +5742,7 @@
       <c r="C134" s="10">
         <v>534.70282039933795</v>
       </c>
-      <c r="D134" s="21"/>
+      <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
@@ -5628,7 +5754,7 @@
       <c r="C135" s="10">
         <v>535.12138222019837</v>
       </c>
-      <c r="D135" s="21"/>
+      <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
@@ -5640,7 +5766,7 @@
       <c r="C136" s="10">
         <v>547.92967526132531</v>
       </c>
-      <c r="D136" s="21"/>
+      <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
@@ -5652,7 +5778,7 @@
       <c r="C137" s="10">
         <v>555.40712591225076</v>
       </c>
-      <c r="D137" s="21"/>
+      <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
@@ -5664,7 +5790,7 @@
       <c r="C138" s="10">
         <v>559.98700325704658</v>
       </c>
-      <c r="D138" s="21"/>
+      <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
@@ -5676,7 +5802,7 @@
       <c r="C139" s="10">
         <v>566.81034068404199</v>
       </c>
-      <c r="D139" s="21"/>
+      <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
@@ -5688,7 +5814,7 @@
       <c r="C140" s="10">
         <v>568.89523407313663</v>
       </c>
-      <c r="D140" s="21"/>
+      <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
@@ -5700,7 +5826,7 @@
       <c r="C141" s="10">
         <v>572.8131333283992</v>
       </c>
-      <c r="D141" s="21"/>
+      <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
@@ -5712,7 +5838,7 @@
       <c r="C142" s="10">
         <v>575.12535114121431</v>
       </c>
-      <c r="D142" s="21"/>
+      <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
@@ -5724,7 +5850,7 @@
       <c r="C143" s="10">
         <v>581.69509818107724</v>
       </c>
-      <c r="D143" s="21"/>
+      <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
@@ -5736,7 +5862,7 @@
       <c r="C144" s="10">
         <v>581.98038224458901</v>
       </c>
-      <c r="D144" s="21"/>
+      <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
@@ -5748,7 +5874,7 @@
       <c r="C145" s="10">
         <v>596.58881302832572</v>
       </c>
-      <c r="D145" s="21"/>
+      <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
@@ -5760,7 +5886,7 @@
       <c r="C146" s="10">
         <v>607.55193900905192</v>
       </c>
-      <c r="D146" s="21"/>
+      <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
@@ -5772,7 +5898,7 @@
       <c r="C147" s="10">
         <v>612.42068173881171</v>
       </c>
-      <c r="D147" s="21"/>
+      <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
@@ -5784,7 +5910,7 @@
       <c r="C148" s="10">
         <v>615.35253343124225</v>
       </c>
-      <c r="D148" s="21"/>
+      <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
@@ -5796,7 +5922,7 @@
       <c r="C149" s="10">
         <v>621.14526066469716</v>
       </c>
-      <c r="D149" s="21"/>
+      <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
@@ -5808,7 +5934,7 @@
       <c r="C150" s="10">
         <v>632.96464019934911</v>
       </c>
-      <c r="D150" s="21"/>
+      <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
@@ -5820,7 +5946,7 @@
       <c r="C151" s="10">
         <v>642.56285722999064</v>
       </c>
-      <c r="D151" s="21"/>
+      <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
@@ -5832,7 +5958,7 @@
       <c r="C152" s="10">
         <v>653.09644227942738</v>
       </c>
-      <c r="D152" s="21"/>
+      <c r="D152" s="14"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
@@ -5844,7 +5970,7 @@
       <c r="C153" s="10">
         <v>660.35678082974664</v>
       </c>
-      <c r="D153" s="21"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
@@ -5856,7 +5982,7 @@
       <c r="C154" s="10">
         <v>682.50680513483155</v>
       </c>
-      <c r="D154" s="21"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
@@ -5868,7 +5994,7 @@
       <c r="C155" s="10">
         <v>698.6312899649397</v>
       </c>
-      <c r="D155" s="21"/>
+      <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
@@ -5880,7 +6006,7 @@
       <c r="C156" s="10">
         <v>731.82101200415195</v>
       </c>
-      <c r="D156" s="21"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
@@ -5892,7 +6018,7 @@
       <c r="C157" s="10">
         <v>752.7607885421063</v>
       </c>
-      <c r="D157" s="21"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
@@ -5904,7 +6030,7 @@
       <c r="C158" s="10">
         <v>762.83959261105554</v>
       </c>
-      <c r="D158" s="21"/>
+      <c r="D158" s="14"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
@@ -5916,7 +6042,7 @@
       <c r="C159" s="10">
         <v>774.82091956778629</v>
       </c>
-      <c r="D159" s="21"/>
+      <c r="D159" s="14"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
@@ -5928,7 +6054,7 @@
       <c r="C160" s="10">
         <v>784.10982886622185</v>
       </c>
-      <c r="D160" s="21"/>
+      <c r="D160" s="14"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
@@ -5940,7 +6066,7 @@
       <c r="C161" s="10">
         <v>795.28340004440042</v>
       </c>
-      <c r="D161" s="21"/>
+      <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
@@ -5952,7 +6078,7 @@
       <c r="C162" s="10">
         <v>803.96327827872767</v>
       </c>
-      <c r="D162" s="21"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
@@ -5964,7 +6090,7 @@
       <c r="C163" s="10">
         <v>816.30203496452862</v>
       </c>
-      <c r="D163" s="21"/>
+      <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
@@ -5976,7 +6102,7 @@
       <c r="C164" s="10">
         <v>844.79020909727865</v>
       </c>
-      <c r="D164" s="21"/>
+      <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
@@ -5988,7 +6114,7 @@
       <c r="C165" s="10">
         <v>861.6893988830426</v>
       </c>
-      <c r="D165" s="21"/>
+      <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
@@ -6000,7 +6126,7 @@
       <c r="C166" s="10">
         <v>876.53992674334393</v>
       </c>
-      <c r="D166" s="21"/>
+      <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
@@ -6012,7 +6138,7 @@
       <c r="C167" s="10">
         <v>885.34400572608502</v>
       </c>
-      <c r="D167" s="21"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
@@ -6024,7 +6150,7 @@
       <c r="C168" s="10">
         <v>895.15931258696139</v>
       </c>
-      <c r="D168" s="21"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
@@ -6036,7 +6162,7 @@
       <c r="C169" s="10">
         <v>920.95056950692299</v>
       </c>
-      <c r="D169" s="21"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
@@ -6048,7 +6174,7 @@
       <c r="C170" s="10">
         <v>944.48454446596463</v>
       </c>
-      <c r="D170" s="21"/>
+      <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
@@ -6060,7 +6186,7 @@
       <c r="C171" s="10">
         <v>960.15449608978076</v>
       </c>
-      <c r="D171" s="21"/>
+      <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
@@ -6072,7 +6198,7 @@
       <c r="C172" s="10">
         <v>974.34700234730394</v>
       </c>
-      <c r="D172" s="21"/>
+      <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
@@ -6084,7 +6210,7 @@
       <c r="C173" s="10">
         <v>991.11123533393493</v>
       </c>
-      <c r="D173" s="21"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
@@ -6096,7 +6222,7 @@
       <c r="C174" s="10">
         <v>1014.2838238910579</v>
       </c>
-      <c r="D174" s="21"/>
+      <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
@@ -6108,7 +6234,7 @@
       <c r="C175" s="10">
         <v>1033.4498333756803</v>
       </c>
-      <c r="D175" s="21"/>
+      <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
@@ -6120,7 +6246,7 @@
       <c r="C176" s="10">
         <v>1044.0752609462882</v>
       </c>
-      <c r="D176" s="21"/>
+      <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
@@ -6132,7 +6258,7 @@
       <c r="C177" s="10">
         <v>1057.8363971914425</v>
       </c>
-      <c r="D177" s="21"/>
+      <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
@@ -6144,7 +6270,7 @@
       <c r="C178" s="10">
         <v>1077.4691034622092</v>
       </c>
-      <c r="D178" s="21"/>
+      <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
@@ -6156,7 +6282,7 @@
       <c r="C179" s="10">
         <v>1088.8798199298074</v>
       </c>
-      <c r="D179" s="21"/>
+      <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
@@ -6168,7 +6294,7 @@
       <c r="C180" s="10">
         <v>1104.9556270658982</v>
       </c>
-      <c r="D180" s="21"/>
+      <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
@@ -6180,7 +6306,7 @@
       <c r="C181" s="10">
         <v>1146.2288710049143</v>
       </c>
-      <c r="D181" s="21"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
@@ -6192,7 +6318,7 @@
       <c r="C182" s="10">
         <v>1170.340276617437</v>
       </c>
-      <c r="D182" s="21"/>
+      <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
@@ -6204,7 +6330,7 @@
       <c r="C183" s="10">
         <v>1191.6711376368805</v>
       </c>
-      <c r="D183" s="21"/>
+      <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
@@ -6216,7 +6342,7 @@
       <c r="C184" s="10">
         <v>1207.6553699575331</v>
       </c>
-      <c r="D184" s="21"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
@@ -6228,7 +6354,7 @@
       <c r="C185" s="10">
         <v>1227.8130107331451</v>
       </c>
-      <c r="D185" s="21"/>
+      <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
@@ -6240,7 +6366,7 @@
       <c r="C186" s="10">
         <v>1250.6489909524691</v>
       </c>
-      <c r="D186" s="21"/>
+      <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
@@ -6252,7 +6378,7 @@
       <c r="C187" s="10">
         <v>1269.6265476544925</v>
       </c>
-      <c r="D187" s="21"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
@@ -6264,7 +6390,7 @@
       <c r="C188" s="10">
         <v>1288.16767519718</v>
       </c>
-      <c r="D188" s="21"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
@@ -6276,7 +6402,7 @@
       <c r="C189" s="10">
         <v>1313.4928105644908</v>
       </c>
-      <c r="D189" s="21"/>
+      <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
@@ -6288,7 +6414,7 @@
       <c r="C190" s="10">
         <v>1328.223278770552</v>
       </c>
-      <c r="D190" s="21"/>
+      <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
@@ -6300,7 +6426,7 @@
       <c r="C191" s="10">
         <v>1349.554945798312</v>
       </c>
-      <c r="D191" s="21"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
@@ -6312,7 +6438,7 @@
       <c r="C192" s="10">
         <v>1384.2154979075526</v>
       </c>
-      <c r="D192" s="21"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
@@ -6324,7 +6450,7 @@
       <c r="C193" s="10">
         <v>1422.1782416807828</v>
       </c>
-      <c r="D193" s="21"/>
+      <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
@@ -6336,7 +6462,7 @@
       <c r="C194" s="10">
         <v>1443.8559646120241</v>
       </c>
-      <c r="D194" s="21"/>
+      <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
@@ -6348,7 +6474,7 @@
       <c r="C195" s="10">
         <v>1470.662835074394</v>
       </c>
-      <c r="D195" s="21"/>
+      <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
@@ -6360,7 +6486,7 @@
       <c r="C196" s="10">
         <v>1505.6778245976936</v>
       </c>
-      <c r="D196" s="21"/>
+      <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
@@ -6372,7 +6498,7 @@
       <c r="C197" s="10">
         <v>1540.0476308954039</v>
       </c>
-      <c r="D197" s="21"/>
+      <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
@@ -6384,7 +6510,7 @@
       <c r="C198" s="10">
         <v>1568.6190942404126</v>
       </c>
-      <c r="D198" s="21"/>
+      <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
@@ -6396,7 +6522,7 @@
       <c r="C199" s="10">
         <v>1598.135828399179</v>
       </c>
-      <c r="D199" s="21"/>
+      <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
@@ -6408,7 +6534,7 @@
       <c r="C200" s="10">
         <v>1652.4331031493323</v>
       </c>
-      <c r="D200" s="21"/>
+      <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
@@ -6420,7 +6546,7 @@
       <c r="C201" s="10">
         <v>1701.4093085042296</v>
       </c>
-      <c r="D201" s="21"/>
+      <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
@@ -6432,7 +6558,7 @@
       <c r="C202" s="10">
         <v>1755.1938708782332</v>
       </c>
-      <c r="D202" s="21"/>
+      <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
@@ -6444,7 +6570,7 @@
       <c r="C203" s="10">
         <v>1824.277588954621</v>
       </c>
-      <c r="D203" s="21"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
@@ -6456,7 +6582,7 @@
       <c r="C204" s="10">
         <v>1948.3573018733891</v>
       </c>
-      <c r="D204" s="21"/>
+      <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
@@ -6468,7 +6594,7 @@
       <c r="C205" s="10">
         <v>2035.1081318826871</v>
       </c>
-      <c r="D205" s="21"/>
+      <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
@@ -6480,7 +6606,7 @@
       <c r="C206" s="10">
         <v>2077.1520215788651</v>
       </c>
-      <c r="D206" s="21"/>
+      <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
@@ -6492,7 +6618,7 @@
       <c r="C207" s="10">
         <v>2130.1826634777008</v>
       </c>
-      <c r="D207" s="21"/>
+      <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
@@ -6504,7 +6630,7 @@
       <c r="C208" s="10">
         <v>2170.4158052921716</v>
       </c>
-      <c r="D208" s="21"/>
+      <c r="D208" s="14"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
@@ -6516,7 +6642,7 @@
       <c r="C209" s="10">
         <v>2211.097284503327</v>
       </c>
-      <c r="D209" s="21"/>
+      <c r="D209" s="14"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
@@ -6528,7 +6654,7 @@
       <c r="C210" s="10">
         <v>2268.3626776911733</v>
       </c>
-      <c r="D210" s="21"/>
+      <c r="D210" s="14"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
@@ -6540,7 +6666,7 @@
       <c r="C211" s="10">
         <v>2336.1678919870246</v>
       </c>
-      <c r="D211" s="21"/>
+      <c r="D211" s="14"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
@@ -6552,7 +6678,7 @@
       <c r="C212" s="10">
         <v>2360.806660143056</v>
       </c>
-      <c r="D212" s="21"/>
+      <c r="D212" s="14"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
@@ -6564,7 +6690,7 @@
       <c r="C213" s="10">
         <v>2394.3729708313899</v>
       </c>
-      <c r="D213" s="21"/>
+      <c r="D213" s="14"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
@@ -6576,7 +6702,7 @@
       <c r="C214" s="10">
         <v>2429.3356405657196</v>
       </c>
-      <c r="D214" s="21"/>
+      <c r="D214" s="14"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
@@ -6588,7 +6714,7 @@
       <c r="C215" s="10">
         <v>2467.1102203771984</v>
       </c>
-      <c r="D215" s="21"/>
+      <c r="D215" s="14"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
@@ -6600,7 +6726,7 @@
       <c r="C216" s="10">
         <v>2512.6779600538662</v>
       </c>
-      <c r="D216" s="21"/>
+      <c r="D216" s="14"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
@@ -6612,7 +6738,7 @@
       <c r="C217" s="10">
         <v>2571.630572791863</v>
       </c>
-      <c r="D217" s="21"/>
+      <c r="D217" s="14"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
@@ -6624,7 +6750,7 @@
       <c r="C218" s="10">
         <v>2622.4593491141168</v>
       </c>
-      <c r="D218" s="21"/>
+      <c r="D218" s="14"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
@@ -6636,7 +6762,7 @@
       <c r="C219" s="10">
         <v>2675.146908273106</v>
       </c>
-      <c r="D219" s="21"/>
+      <c r="D219" s="14"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
@@ -6648,7 +6774,7 @@
       <c r="C220" s="10">
         <v>2703.5098458241669</v>
       </c>
-      <c r="D220" s="21"/>
+      <c r="D220" s="14"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
@@ -6660,7 +6786,7 @@
       <c r="C221" s="10">
         <v>2768.8128845592828</v>
       </c>
-      <c r="D221" s="21"/>
+      <c r="D221" s="14"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
@@ -6672,7 +6798,7 @@
       <c r="C222" s="10">
         <v>2820.6229969993251</v>
       </c>
-      <c r="D222" s="21"/>
+      <c r="D222" s="14"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
@@ -6684,7 +6810,7 @@
       <c r="C223" s="10">
         <v>2886.5915027632368</v>
       </c>
-      <c r="D223" s="21"/>
+      <c r="D223" s="14"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
@@ -6696,7 +6822,7 @@
       <c r="C224" s="10">
         <v>2925.6256761815616</v>
       </c>
-      <c r="D224" s="21"/>
+      <c r="D224" s="14"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
@@ -6708,7 +6834,7 @@
       <c r="C225" s="10">
         <v>3007.5590838227949</v>
       </c>
-      <c r="D225" s="21"/>
+      <c r="D225" s="14"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
@@ -6720,7 +6846,7 @@
       <c r="C226" s="10">
         <v>3206.5528482227819</v>
       </c>
-      <c r="D226" s="21"/>
+      <c r="D226" s="14"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
@@ -6732,7 +6858,7 @@
       <c r="C227" s="10">
         <v>3330.864526886658</v>
       </c>
-      <c r="D227" s="21"/>
+      <c r="D227" s="14"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
@@ -6744,7 +6870,7 @@
       <c r="C228" s="10">
         <v>3426.8697734503567</v>
       </c>
-      <c r="D228" s="21"/>
+      <c r="D228" s="14"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
@@ -6756,7 +6882,7 @@
       <c r="C229" s="10">
         <v>3535.2136456378062</v>
       </c>
-      <c r="D229" s="21"/>
+      <c r="D229" s="14"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
@@ -6768,7 +6894,7 @@
       <c r="C230" s="10">
         <v>3663.6599999999994</v>
       </c>
-      <c r="D230" s="21"/>
+      <c r="D230" s="14"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
@@ -6780,7 +6906,7 @@
       <c r="C231" s="10">
         <v>3830.77</v>
       </c>
-      <c r="D231" s="21"/>
+      <c r="D231" s="14"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
@@ -6792,7 +6918,7 @@
       <c r="C232" s="10">
         <v>3942.67</v>
       </c>
-      <c r="D232" s="21"/>
+      <c r="D232" s="14"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
@@ -6804,7 +6930,7 @@
       <c r="C233" s="10">
         <v>4032.88</v>
       </c>
-      <c r="D233" s="21"/>
+      <c r="D233" s="14"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
@@ -6816,7 +6942,7 @@
       <c r="C234" s="10">
         <v>4036.87</v>
       </c>
-      <c r="D234" s="21"/>
+      <c r="D234" s="14"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
@@ -6828,7 +6954,7 @@
       <c r="C235" s="10">
         <v>4089.82</v>
       </c>
-      <c r="D235" s="21"/>
+      <c r="D235" s="14"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
@@ -6840,7 +6966,7 @@
       <c r="C236" s="10">
         <v>4191.8100000000004</v>
       </c>
-      <c r="D236" s="21"/>
+      <c r="D236" s="14"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
@@ -6852,7 +6978,7 @@
       <c r="C237" s="10">
         <v>4247.99</v>
       </c>
-      <c r="D237" s="21"/>
+      <c r="D237" s="14"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
@@ -6864,7 +6990,7 @@
       <c r="C238" s="10">
         <v>4257.55</v>
       </c>
-      <c r="D238" s="21"/>
+      <c r="D238" s="14"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
@@ -6876,7 +7002,7 @@
       <c r="C239" s="10">
         <v>4311.8500000000004</v>
       </c>
-      <c r="D239" s="21"/>
+      <c r="D239" s="14"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
@@ -6888,7 +7014,7 @@
       <c r="C240" s="10">
         <v>4425.08</v>
       </c>
-      <c r="D240" s="21"/>
+      <c r="D240" s="14"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
@@ -6900,7 +7026,7 @@
       <c r="C241" s="10">
         <v>4560.04</v>
       </c>
-      <c r="D241" s="21"/>
+      <c r="D241" s="14"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
@@ -6912,7 +7038,7 @@
       <c r="C242" s="10">
         <v>4692.8999999999996</v>
       </c>
-      <c r="D242" s="21"/>
+      <c r="D242" s="14"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
@@ -6924,7 +7050,7 @@
       <c r="C243" s="10">
         <v>4746.24</v>
       </c>
-      <c r="D243" s="21"/>
+      <c r="D243" s="14"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
@@ -6936,7 +7062,7 @@
       <c r="C244" s="10">
         <v>4793.2299999999996</v>
       </c>
-      <c r="D244" s="21"/>
+      <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
@@ -6948,7 +7074,7 @@
       <c r="C245" s="10">
         <v>4862.37</v>
       </c>
-      <c r="D245" s="21"/>
+      <c r="D245" s="14"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
@@ -6960,7 +7086,7 @@
       <c r="C246" s="10">
         <v>4933.63</v>
       </c>
-      <c r="D246" s="21"/>
+      <c r="D246" s="14"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
@@ -6972,7 +7098,7 @@
       <c r="C247" s="10">
         <v>5000.51</v>
       </c>
-      <c r="D247" s="21"/>
+      <c r="D247" s="14"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
@@ -6984,7 +7110,7 @@
       <c r="C248" s="10">
         <v>5073.32</v>
       </c>
-      <c r="D248" s="21"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
@@ -6996,7 +7122,7 @@
       <c r="C249" s="10">
         <v>5187.05</v>
       </c>
-      <c r="D249" s="21"/>
+      <c r="D249" s="14"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
@@ -7008,7 +7134,7 @@
       <c r="C250" s="10">
         <v>5397.23</v>
       </c>
-      <c r="D250" s="21"/>
+      <c r="D250" s="14"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
@@ -7020,7 +7146,7 @@
       <c r="C251" s="10">
         <v>5493.15</v>
       </c>
-      <c r="D251" s="21"/>
+      <c r="D251" s="14"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
@@ -7032,7 +7158,7 @@
       <c r="C252" s="10">
         <v>5675.69</v>
       </c>
-      <c r="D252" s="21"/>
+      <c r="D252" s="14"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
@@ -7044,7 +7170,7 @@
       <c r="C253" s="10">
         <v>5782.29</v>
       </c>
-      <c r="D253" s="21"/>
+      <c r="D253" s="14"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
@@ -7056,7 +7182,7 @@
       <c r="C254" s="10">
         <v>5908.76</v>
       </c>
-      <c r="D254" s="21"/>
+      <c r="D254" s="14"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
@@ -7068,7 +7194,7 @@
       <c r="C255" s="10">
         <v>6095</v>
       </c>
-      <c r="D255" s="21"/>
+      <c r="D255" s="14"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
@@ -7080,7 +7206,7 @@
       <c r="C256" s="10">
         <v>6343.63</v>
       </c>
-      <c r="D256" s="21"/>
+      <c r="D256" s="14"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
@@ -7092,7 +7218,7 @@
       <c r="C257" s="10">
         <v>6515.88</v>
       </c>
-      <c r="D257" s="21"/>
+      <c r="D257" s="14"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
@@ -7104,7 +7230,7 @@
       <c r="C258" s="10">
         <v>6753.7</v>
       </c>
-      <c r="D258" s="21"/>
+      <c r="D258" s="14"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
@@ -7116,7 +7242,7 @@
       <c r="C259" s="10">
         <v>7300.38</v>
       </c>
-      <c r="D259" s="21"/>
+      <c r="D259" s="14"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
@@ -7128,7 +7254,7 @@
       <c r="C260" s="10">
         <v>7845.04</v>
       </c>
-      <c r="D260" s="21"/>
+      <c r="D260" s="14"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
@@ -7140,7 +7266,7 @@
       <c r="C261" s="10">
         <v>8157.29</v>
       </c>
-      <c r="D261" s="21"/>
+      <c r="D261" s="14"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
@@ -7152,7 +7278,7 @@
       <c r="C262" s="10">
         <v>8250.43</v>
       </c>
-      <c r="D262" s="21"/>
+      <c r="D262" s="14"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
@@ -7164,7 +7290,7 @@
       <c r="C263" s="10">
         <v>8557.58</v>
       </c>
-      <c r="D263" s="21"/>
+      <c r="D263" s="14"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
@@ -7176,7 +7302,7 @@
       <c r="C264" s="10">
         <v>8922.4699999999993</v>
       </c>
-      <c r="D264" s="21"/>
+      <c r="D264" s="14"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
@@ -7188,7 +7314,7 @@
       <c r="C265" s="10">
         <v>9304.51</v>
       </c>
-      <c r="D265" s="21"/>
+      <c r="D265" s="14"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
@@ -7200,7 +7326,7 @@
       <c r="C266" s="10">
         <v>9544.8700000000008</v>
       </c>
-      <c r="D266" s="21"/>
+      <c r="D266" s="14"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
@@ -7212,7 +7338,7 @@
       <c r="C267" s="10">
         <v>9818.07</v>
       </c>
-      <c r="D267" s="21"/>
+      <c r="D267" s="14"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
@@ -7224,7 +7350,7 @@
       <c r="C268" s="10">
         <v>10080.39</v>
       </c>
-      <c r="D268" s="21"/>
+      <c r="D268" s="14"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
@@ -7236,7 +7362,7 @@
       <c r="C269" s="10">
         <v>10334.780000000001</v>
       </c>
-      <c r="D269" s="21"/>
+      <c r="D269" s="14"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
@@ -7248,7 +7374,7 @@
       <c r="C270" s="10">
         <v>10683.89</v>
       </c>
-      <c r="D270" s="21"/>
+      <c r="D270" s="14"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
@@ -7260,7 +7386,7 @@
       <c r="C271" s="10">
         <v>11257.2</v>
       </c>
-      <c r="D271" s="21"/>
+      <c r="D271" s="14"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
@@ -7272,7 +7398,7 @@
       <c r="C272" s="10">
         <v>11536.46</v>
       </c>
-      <c r="D272" s="21"/>
+      <c r="D272" s="14"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
@@ -7284,7 +7410,7 @@
       <c r="C273" s="10">
         <v>12166.99</v>
       </c>
-      <c r="D273" s="21"/>
+      <c r="D273" s="14"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
@@ -7296,7 +7422,7 @@
       <c r="C274" s="10">
         <v>12608.53</v>
       </c>
-      <c r="D274" s="21"/>
+      <c r="D274" s="14"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
@@ -7308,7 +7434,7 @@
       <c r="C275" s="10">
         <v>13065.7</v>
       </c>
-      <c r="D275" s="21"/>
+      <c r="D275" s="14"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
@@ -7320,7 +7446,7 @@
       <c r="C276" s="10">
         <v>13200.54</v>
       </c>
-      <c r="D276" s="21"/>
+      <c r="D276" s="14"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
@@ -7332,7 +7458,7 @@
       <c r="C277" s="10">
         <v>13590.57</v>
       </c>
-      <c r="D277" s="21"/>
+      <c r="D277" s="14"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
@@ -7344,7 +7470,7 @@
       <c r="C278" s="10">
         <v>13784.46</v>
       </c>
-      <c r="D278" s="21"/>
+      <c r="D278" s="14"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
@@ -7356,7 +7482,7 @@
       <c r="C279" s="10">
         <v>13941.87</v>
       </c>
-      <c r="D279" s="21"/>
+      <c r="D279" s="14"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
@@ -7368,7 +7494,7 @@
       <c r="C280" s="10">
         <v>14178.22</v>
       </c>
-      <c r="D280" s="21"/>
+      <c r="D280" s="14"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
@@ -7380,7 +7506,7 @@
       <c r="C281" s="10">
         <v>14408.17</v>
       </c>
-      <c r="D281" s="21"/>
+      <c r="D281" s="14"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
@@ -7392,7 +7518,7 @@
       <c r="C282" s="10">
         <v>14717.69</v>
       </c>
-      <c r="D282" s="21"/>
+      <c r="D282" s="14"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
@@ -7404,7 +7530,7 @@
       <c r="C283" s="10">
         <v>15280.25</v>
       </c>
-      <c r="D283" s="21"/>
+      <c r="D283" s="14"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
@@ -7416,7 +7542,7 @@
       <c r="C284" s="10">
         <v>16152.62</v>
       </c>
-      <c r="D284" s="21"/>
+      <c r="D284" s="14"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
@@ -7428,7 +7554,7 @@
       <c r="C285" s="10">
         <v>16755.86</v>
       </c>
-      <c r="D285" s="21"/>
+      <c r="D285" s="14"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
@@ -7440,7 +7566,7 @@
       <c r="C286" s="10">
         <v>17542.89</v>
       </c>
-      <c r="D286" s="21"/>
+      <c r="D286" s="14"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
@@ -7452,7 +7578,7 @@
       <c r="C287" s="10">
         <v>18271.47</v>
       </c>
-      <c r="D287" s="21"/>
+      <c r="D287" s="14"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
@@ -7464,7 +7590,7 @@
       <c r="C288" s="10">
         <v>18769.41</v>
       </c>
-      <c r="D288" s="21"/>
+      <c r="D288" s="14"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
@@ -7476,7 +7602,7 @@
       <c r="C289" s="10">
         <v>19700.22</v>
       </c>
-      <c r="D289" s="21"/>
+      <c r="D289" s="14"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
@@ -7488,7 +7614,7 @@
       <c r="C290" s="10">
         <v>20374.61</v>
       </c>
-      <c r="D290" s="21"/>
+      <c r="D290" s="14"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
@@ -7500,7 +7626,7 @@
       <c r="C291" s="10">
         <v>20855.990000000002</v>
       </c>
-      <c r="D291" s="21"/>
+      <c r="D291" s="14"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
@@ -7512,7 +7638,7 @@
       <c r="C292" s="10">
         <v>21517.26</v>
       </c>
-      <c r="D292" s="21"/>
+      <c r="D292" s="14"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
@@ -7524,7 +7650,7 @@
       <c r="C293" s="10">
         <v>21869.47</v>
       </c>
-      <c r="D293" s="21"/>
+      <c r="D293" s="14"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
@@ -7536,7 +7662,7 @@
       <c r="C294" s="10">
         <v>22122.66</v>
       </c>
-      <c r="D294" s="21"/>
+      <c r="D294" s="14"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
@@ -7548,7 +7674,7 @@
       <c r="C295" s="10">
         <v>22826.04</v>
       </c>
-      <c r="D295" s="21"/>
+      <c r="D295" s="14"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
@@ -7560,7 +7686,7 @@
       <c r="C296" s="10">
         <v>23419.19</v>
       </c>
-      <c r="D296" s="21"/>
+      <c r="D296" s="14"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
@@ -7572,7 +7698,7 @@
       <c r="C297" s="10">
         <v>23921.62</v>
       </c>
-      <c r="D297" s="21"/>
+      <c r="D297" s="14"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
@@ -7584,7 +7710,7 @@
       <c r="C298" s="10">
         <v>24642.76</v>
       </c>
-      <c r="D298" s="21"/>
+      <c r="D298" s="14"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
@@ -7596,7 +7722,7 @@
       <c r="C299" s="10">
         <v>25444.81</v>
       </c>
-      <c r="D299" s="21"/>
+      <c r="D299" s="14"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
@@ -7608,7 +7734,7 @@
       <c r="C300" s="10">
         <v>27122.1</v>
       </c>
-      <c r="D300" s="21"/>
+      <c r="D300" s="14"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
@@ -7620,7 +7746,7 @@
       <c r="C301" s="10">
         <v>29026.01</v>
       </c>
-      <c r="D301" s="21"/>
+      <c r="D301" s="14"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
@@ -7632,7 +7758,7 @@
       <c r="C302" s="10">
         <v>30828.6</v>
       </c>
-      <c r="D302" s="21"/>
+      <c r="D302" s="14"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
@@ -7644,7 +7770,7 @@
       <c r="C303" s="10">
         <v>32257.88</v>
       </c>
-      <c r="D303" s="21"/>
+      <c r="D303" s="14"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
@@ -7656,79 +7782,211 @@
       <c r="C304" s="10">
         <v>33727.120000000003</v>
       </c>
-      <c r="D304" s="21"/>
+      <c r="D304" s="14"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>44743</v>
       </c>
-      <c r="B305" s="11">
+      <c r="B305" s="9">
         <v>29935.952507066046</v>
       </c>
-      <c r="C305" s="12">
+      <c r="C305" s="10">
         <v>36018.629999999997</v>
       </c>
-      <c r="D305" s="22"/>
+      <c r="D305" s="15"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>44774</v>
       </c>
-      <c r="B306" s="11">
+      <c r="B306" s="9">
         <v>32057.648220063082</v>
       </c>
-      <c r="C306" s="12">
+      <c r="C306" s="10">
         <v>38756.29</v>
       </c>
-      <c r="D306" s="22"/>
+      <c r="D306" s="15"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>44805</v>
       </c>
-      <c r="B307" s="11">
+      <c r="B307" s="9">
         <v>34001.339067223293</v>
       </c>
-      <c r="C307" s="12">
+      <c r="C307" s="10">
         <v>41493.24</v>
       </c>
-      <c r="D307" s="22"/>
+      <c r="D307" s="15"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>44835</v>
       </c>
-      <c r="B308" s="11">
+      <c r="B308" s="9">
         <v>36102.794493415167</v>
       </c>
-      <c r="C308" s="12">
+      <c r="C308" s="10">
         <v>45222.57</v>
       </c>
-      <c r="D308" s="22"/>
+      <c r="D308" s="15"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>44866</v>
       </c>
-      <c r="B309" s="11">
+      <c r="B309" s="9">
         <v>37831.725694387475</v>
       </c>
-      <c r="C309" s="12">
+      <c r="C309" s="10">
         <v>47232.32</v>
       </c>
-      <c r="D309" s="22"/>
+      <c r="D309" s="15"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>44896</v>
       </c>
-      <c r="B310" s="11">
+      <c r="B310" s="9">
         <v>39543.302614857785</v>
       </c>
-      <c r="C310" s="12">
+      <c r="C310" s="10">
         <v>49357.7</v>
       </c>
-      <c r="D310" s="22"/>
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B311" s="9">
+        <v>41877.421282279087</v>
+      </c>
+      <c r="C311" s="10">
+        <v>52925.14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B312" s="9">
+        <v>46032.577224152199</v>
+      </c>
+      <c r="C312" s="10">
+        <v>57301.9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B313" s="9">
+        <v>49479.906721348721</v>
+      </c>
+      <c r="C313" s="10">
+        <v>61886.1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B314" s="9">
+        <v>52937.675196070304</v>
+      </c>
+      <c r="C314" s="10">
+        <v>65812.52</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B315" s="9">
+        <v>56145.453505134137</v>
+      </c>
+      <c r="C315" s="10">
+        <v>70522.91</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B316" s="9">
+        <v>58740.112271255595</v>
+      </c>
+      <c r="C316" s="10">
+        <v>75219.039999999994</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B317" s="9">
+        <v>62048.076830989041</v>
+      </c>
+      <c r="C317" s="10">
+        <v>80570.23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B318" s="9">
+        <v>72024.310909326581</v>
+      </c>
+      <c r="C318" s="10">
+        <v>92131.7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B319" s="9">
+        <v>82529.495005972916</v>
+      </c>
+      <c r="C319" s="10">
+        <v>103372.83</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="4">
+        <v>45200</v>
+      </c>
+      <c r="B320" s="9">
+        <v>88660.696535878626</v>
+      </c>
+      <c r="C320" s="10">
+        <v>111746.1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="4">
+        <v>45231</v>
+      </c>
+      <c r="B321" s="9">
+        <v>100037.9338409987</v>
+      </c>
+      <c r="C321" s="10">
+        <v>126361.27</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="4">
+        <v>45261</v>
+      </c>
+      <c r="B322" s="9">
+        <v>131995.71969605627</v>
+      </c>
+      <c r="C322" s="10">
+        <v>160452.53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
